--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
@@ -1,90 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{81BFF46E-F655-4AC7-958E-AFD75318A040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DE77C4-6F42-474E-8C2F-698691AF889F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917DA31-65E6-4DBD-80AD-7F49568FE09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="48" activeTab="53" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-15105" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="ProductionPads" sheetId="1" r:id="rId3"/>
-    <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId4"/>
-    <sheet name="CompletionsPads" sheetId="3" r:id="rId5"/>
-    <sheet name="SWDSites" sheetId="4" r:id="rId6"/>
-    <sheet name="FreshwaterSources" sheetId="35" r:id="rId7"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId8"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId9"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId10"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId11"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId12"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId13"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId14"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId15"/>
-    <sheet name="PNA" sheetId="56" r:id="rId16"/>
-    <sheet name="CNA" sheetId="57" r:id="rId17"/>
-    <sheet name="CCA" sheetId="73" r:id="rId18"/>
-    <sheet name="NNA" sheetId="58" r:id="rId19"/>
-    <sheet name="NCA" sheetId="59" r:id="rId20"/>
-    <sheet name="NKA" sheetId="60" r:id="rId21"/>
-    <sheet name="NRA" sheetId="61" r:id="rId22"/>
-    <sheet name="NSA" sheetId="76" r:id="rId23"/>
-    <sheet name="SNA" sheetId="77" r:id="rId24"/>
-    <sheet name="FCA" sheetId="41" r:id="rId25"/>
-    <sheet name="RCA" sheetId="83" r:id="rId26"/>
-    <sheet name="RNA" sheetId="62" r:id="rId27"/>
-    <sheet name="PCT" sheetId="42" r:id="rId28"/>
-    <sheet name="FCT" sheetId="70" r:id="rId29"/>
-    <sheet name="PKT" sheetId="43" r:id="rId30"/>
-    <sheet name="CKT" sheetId="44" r:id="rId31"/>
-    <sheet name="CCT" sheetId="74" r:id="rId32"/>
-    <sheet name="CST" sheetId="64" r:id="rId33"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId34"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId35"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId36"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId37"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId38"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId39"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId40"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId41"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId42"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId43"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId44"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId45"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId46"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId47"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId48"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId49"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId50"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId51"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId52"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId53"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId54"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId55"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId56"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId57"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId58"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId59"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId60"/>
-    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId61"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId62"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId63"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId64"/>
-    <sheet name="Economics" sheetId="95" r:id="rId65"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId66"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId67"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId68"/>
+    <sheet name="Units" sheetId="103" r:id="rId3"/>
+    <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
+    <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
+    <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
+    <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
+    <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId11"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId12"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId13"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId14"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId15"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId16"/>
+    <sheet name="PNA" sheetId="56" r:id="rId17"/>
+    <sheet name="CNA" sheetId="57" r:id="rId18"/>
+    <sheet name="CCA" sheetId="73" r:id="rId19"/>
+    <sheet name="NNA" sheetId="58" r:id="rId20"/>
+    <sheet name="NCA" sheetId="59" r:id="rId21"/>
+    <sheet name="NKA" sheetId="60" r:id="rId22"/>
+    <sheet name="NRA" sheetId="61" r:id="rId23"/>
+    <sheet name="NSA" sheetId="76" r:id="rId24"/>
+    <sheet name="SNA" sheetId="77" r:id="rId25"/>
+    <sheet name="FCA" sheetId="41" r:id="rId26"/>
+    <sheet name="RCA" sheetId="83" r:id="rId27"/>
+    <sheet name="RNA" sheetId="62" r:id="rId28"/>
+    <sheet name="PCT" sheetId="42" r:id="rId29"/>
+    <sheet name="FCT" sheetId="70" r:id="rId30"/>
+    <sheet name="PKT" sheetId="43" r:id="rId31"/>
+    <sheet name="CKT" sheetId="44" r:id="rId32"/>
+    <sheet name="CCT" sheetId="74" r:id="rId33"/>
+    <sheet name="CST" sheetId="64" r:id="rId34"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId35"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId36"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId37"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId38"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId39"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId40"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId41"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId42"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId43"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId44"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId45"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId46"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId47"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId48"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId49"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId50"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId51"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId52"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId53"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId54"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId55"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId56"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId57"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId58"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId59"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId60"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId61"/>
+    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId62"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId63"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId64"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId65"/>
+    <sheet name="Economics" sheetId="95" r:id="rId66"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId67"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId68"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId69"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="60">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="271">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -843,6 +844,108 @@
   </si>
   <si>
     <t>Table of Node Capacity Capacity  [bbl/week] * absence of node or empty cell signifies no max capacity</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Notes on Units</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>oil_bbl</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>42 gallons</t>
+  </si>
+  <si>
+    <t>koil_bbl</t>
+  </si>
+  <si>
+    <t>1000 oil_bbl</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>kmeter</t>
+  </si>
+  <si>
+    <t>1000 m</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>mg/liter</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>kUSD</t>
+  </si>
+  <si>
+    <t>1000 USD</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>decision_period</t>
+  </si>
+  <si>
+    <t>decision period</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fortnight</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>30.44 days</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>kg/liter</t>
+  </si>
+  <si>
+    <t>meter</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,8 +1043,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1207,13 +1316,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1357,6 +1582,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2346,6 +2615,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -2521,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -2735,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -2907,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3067,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3235,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3403,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -3538,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3637,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3709,289 +4136,6 @@
       <c r="E6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4069,6 +4213,289 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4180,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4298,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4399,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4431,7 +4858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4463,7 +4890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4535,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4581,7 +5008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4619,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4683,7 +5110,312 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B43807B-0CC1-4E48-B257-F8C02EE676B6}">
+  <dimension ref="A1:AY12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="47" width="9.33203125" style="1"/>
+    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="79"/>
+      <c r="AS8" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT8" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU8" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV8" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW8" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX8" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY8" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AS10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AT11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AT12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{2A805D45-923B-4499-B425-78615666508C}">
+      <formula1>$AU$9:$AU$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{2E62A0ED-C356-4531-96AB-AE29E92E8803}">
+      <formula1>$AY$9:$AY$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{4185B2CC-8088-4F30-A77D-C1AD455FA391}">
+      <formula1>$AX$9:$AX$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{F062F206-A234-4F44-8D74-740D1BA72732}">
+      <formula1>$AW$9:$AW$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{65EEA3C0-2CFE-4C13-B168-6A5598EAD5B1}">
+      <formula1>$AV$9:$AV$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{18C1229B-8F2F-47BA-8153-C67FBE675AC1}">
+      <formula1>$AT$9:$AT$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{34979535-B76D-4F7E-BF1F-E6777392E2E3}">
+      <formula1>$AS$9:$AS$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4754,91 +5486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
-  <dimension ref="A1:R5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4917,7 +5565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4974,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5023,7 +5671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5055,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
@@ -5448,7 +6096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
@@ -6500,7 +7148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E83FA-0F3B-443C-8B3E-ADC37406AEAD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6600,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
@@ -7112,7 +7760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -7374,7 +8022,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7422,7 +8154,1301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="44">
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
+  <dimension ref="A1:BA17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="C3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="D3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="F3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="G3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="H3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="I3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="J3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="K3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="L3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="M3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="N3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="O3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="P3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="R3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="S3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="T3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="U3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="V3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="W3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="X3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AA3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AB3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AD3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AE3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AF3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AH3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AI3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AJ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AK3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AL3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AM3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AN3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AO3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AP3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AQ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AR3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AS3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AT3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AU3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AV3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AW3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AX3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AY3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AZ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="D4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="F4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="H4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="I4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="J4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="K4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="L4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="M4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="N4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="O4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="P4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="R4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="S4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="T4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="U4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="V4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="W4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="X4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AB4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AE4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AH4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AJ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AK4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AM4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AN4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AP4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AQ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AS4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AT4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AU4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AV4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AW4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AX4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AY4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AZ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="BA4" s="35">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="C5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="D5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="F5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="G5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="H5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="I5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="K5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="L5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="M5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="N5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="O5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="P5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="R5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="S5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="T5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="U5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="V5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="W5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="X5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AE5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AH5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AI5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AJ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AK5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AL5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AM5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AN5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AO5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AV5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="BA5" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="D6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="H6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="I6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="K6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="L6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="M6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="O6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="P6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="R6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="S6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="T6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="U6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="V6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="W6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="X6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AD6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AG6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AH6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AJ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AK6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AL6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AM6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AN6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AO6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AT6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AU6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AV6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AW6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AX6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AY6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AZ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="BA6" s="35">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="35">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36">
+        <v>210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -7604,1301 +9630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="44">
-        <v>75000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
-  <dimension ref="A1:BA17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA2" s="28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="C3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="D3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="E3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="F3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="G3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="H3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="I3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="J3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="K3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="L3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="M3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="N3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="O3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="P3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="R3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="S3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="T3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="U3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="V3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="W3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="X3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AB3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AD3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AE3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AF3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AG3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AH3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AI3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AJ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AK3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AL3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AM3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AN3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AO3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AP3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AQ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AR3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AS3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AT3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AU3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AV3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AW3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AX3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AY3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AZ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="BA3" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="D4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="H4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="J4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="K4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="L4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="M4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="N4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="O4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="P4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="R4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="S4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="T4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="U4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="V4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="W4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="X4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Y4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AB4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AG4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AH4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AJ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AK4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AM4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AN4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AO4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AP4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AQ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AR4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AS4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AT4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AU4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AV4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AW4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AX4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AY4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AZ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="BA4" s="35">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="C5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="D5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="E5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="F5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="G5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="H5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="I5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="K5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="L5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="M5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="N5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="O5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="P5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="R5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="S5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="T5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="U5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="V5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="W5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="X5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Y5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AB5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AE5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AF5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AG5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AH5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AI5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AJ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AK5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AL5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AM5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AN5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AO5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AP5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AQ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AR5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AS5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AT5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AU5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AV5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AW5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AX5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AY5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AZ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="BA5" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="D6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="F6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="G6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="H6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="I6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="J6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="K6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="L6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="M6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="N6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="O6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="P6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="R6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="S6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="T6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="U6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="V6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="W6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="X6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Y6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AA6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AB6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AE6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AF6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AG6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AH6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AI6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AJ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AL6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AM6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AN6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AO6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AP6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AQ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AR6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AS6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AT6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AU6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AV6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AW6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AX6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AY6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AZ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="BA6" s="35">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="35">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="36">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -9000,7 +9732,646 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="36">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="36">
+        <v>350000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="36">
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34">
+        <v>20</v>
+      </c>
+      <c r="C3" s="34">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>20</v>
+      </c>
+      <c r="E3" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="34">
+        <v>20</v>
+      </c>
+      <c r="C4" s="34">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA283BC5-D620-4970-8035-9A1157B6300D}">
   <dimension ref="A1:T7"/>
   <sheetViews>
@@ -9141,646 +10512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="32">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="32">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="32">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="12">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="36">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="36">
-        <v>350000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="36">
-        <v>250000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="34">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34">
-        <v>20</v>
-      </c>
-      <c r="E3" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="34">
-        <v>20</v>
-      </c>
-      <c r="C4" s="34">
-        <v>20</v>
-      </c>
-      <c r="D4" s="34">
-        <v>20</v>
-      </c>
-      <c r="E4" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -9874,7 +10606,1730 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="36">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="58">
+        <v>14.26</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="58">
+        <v>16.847000000000001</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="58">
+        <v>12.562999999999999</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="58">
+        <v>25.074000000000002</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="58">
+        <v>11.209999999999999</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="58">
+        <v>35.07985</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="58">
+        <v>21.292999999999999</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="58">
+        <v>30.886050000000001</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="60">
+        <v>40.752409775985356</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="60">
+        <v>41.716999999999999</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="60">
+        <v>40.752409775985356</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="58">
+        <v>8.2970000000000006</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="58">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="58">
+        <v>8.2970000000000006</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="58">
+        <v>8.3129999999999988</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="58">
+        <v>11.209999999999999</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="58">
+        <v>8.3129999999999988</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="58">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="58">
+        <v>13.163</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="60">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="58">
+        <v>14.431000000000001</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="58">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="58">
+        <v>11.53</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="58">
+        <v>11.53</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="58">
+        <v>6.0780000000000003</v>
+      </c>
+      <c r="J15" s="58">
+        <v>24.449000000000002</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="58">
+        <v>14.431000000000001</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="58">
+        <v>6.0780000000000003</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" s="58">
+        <v>17.599</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="58">
+        <v>24.449000000000002</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="58">
+        <v>9.9379999999999988</v>
+      </c>
+      <c r="L17" s="58">
+        <v>38.850999999999999</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" s="58">
+        <v>9.9379999999999988</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>21.292999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="58">
+        <v>38.850999999999999</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="58">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" s="58">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="58">
+        <v>17.599</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" s="58">
+        <v>35.07985</v>
+      </c>
+      <c r="Q24" s="58">
+        <v>30.886050000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="35">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="36">
+        <v>350000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="52">
+        <v>30</v>
+      </c>
+      <c r="D3" s="52">
+        <v>30</v>
+      </c>
+      <c r="E3" s="52">
+        <v>30</v>
+      </c>
+      <c r="F3" s="52">
+        <v>30</v>
+      </c>
+      <c r="G3" s="52">
+        <v>30</v>
+      </c>
+      <c r="H3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="56">
+        <v>30</v>
+      </c>
+      <c r="D4" s="56">
+        <v>30</v>
+      </c>
+      <c r="E4" s="56">
+        <v>30</v>
+      </c>
+      <c r="F4" s="56">
+        <v>30</v>
+      </c>
+      <c r="G4" s="56">
+        <v>30</v>
+      </c>
+      <c r="H4" s="57">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="50">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="36">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="63">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="64">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="64">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="64">
+        <v>240977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
@@ -9947,1730 +12402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="36">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
-  <dimension ref="A1:Q24"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="58">
-        <v>14.26</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="58">
-        <v>16.847000000000001</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="58">
-        <v>12.562999999999999</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="58">
-        <v>25.074000000000002</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="58">
-        <v>11.209999999999999</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="58">
-        <v>35.07985</v>
-      </c>
-      <c r="P7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="58">
-        <v>21.292999999999999</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="58">
-        <v>30.886050000000001</v>
-      </c>
-      <c r="P8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="60">
-        <v>40.752409775985356</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="60">
-        <v>41.716999999999999</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="60">
-        <v>40.752409775985356</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="58">
-        <v>8.2970000000000006</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="58">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="58">
-        <v>8.2970000000000006</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="58">
-        <v>8.3129999999999988</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P11" s="58">
-        <v>11.209999999999999</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="58">
-        <v>8.3129999999999988</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="58">
-        <v>12.532999999999999</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="58">
-        <v>13.163</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="60">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="58">
-        <v>14.431000000000001</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q13" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="58">
-        <v>12.532999999999999</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="58">
-        <v>11.53</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="58">
-        <v>11.53</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I15" s="58">
-        <v>6.0780000000000003</v>
-      </c>
-      <c r="J15" s="58">
-        <v>24.449000000000002</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="58">
-        <v>14.431000000000001</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="58">
-        <v>6.0780000000000003</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O16" s="58">
-        <v>17.599</v>
-      </c>
-      <c r="P16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="58">
-        <v>24.449000000000002</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="58">
-        <v>9.9379999999999988</v>
-      </c>
-      <c r="L17" s="58">
-        <v>38.850999999999999</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J18" s="58">
-        <v>9.9379999999999988</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q18" s="58">
-        <v>21.292999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J19" s="58">
-        <v>38.850999999999999</v>
-      </c>
-      <c r="K19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="58">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P21" s="58">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="58">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="58">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="58">
-        <v>17.599</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P24" s="58">
-        <v>35.07985</v>
-      </c>
-      <c r="Q24" s="58">
-        <v>30.886050000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="35">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="36">
-        <v>350000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="52">
-        <v>30</v>
-      </c>
-      <c r="D3" s="52">
-        <v>30</v>
-      </c>
-      <c r="E3" s="52">
-        <v>30</v>
-      </c>
-      <c r="F3" s="52">
-        <v>30</v>
-      </c>
-      <c r="G3" s="52">
-        <v>30</v>
-      </c>
-      <c r="H3" s="53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="56">
-        <v>30</v>
-      </c>
-      <c r="D4" s="56">
-        <v>30</v>
-      </c>
-      <c r="E4" s="56">
-        <v>30</v>
-      </c>
-      <c r="F4" s="56">
-        <v>30</v>
-      </c>
-      <c r="G4" s="56">
-        <v>30</v>
-      </c>
-      <c r="H4" s="57">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="49">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="36">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="63">
-        <v>142277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="64">
-        <v>140998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="64">
-        <v>172490.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="64">
-        <v>257547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="64">
-        <v>165376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="64">
-        <v>240977</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -11777,7 +12509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -11951,162 +12683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
-  <dimension ref="A1:T8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917DA31-65E6-4DBD-80AD-7F49568FE09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE5324-CE4A-43E7-9AAD-5538FECC344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15105" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-10875" yWindow="-14580" windowWidth="21600" windowHeight="12675" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="Units" sheetId="103" r:id="rId3"/>
+    <sheet name="Units" sheetId="104" r:id="rId3"/>
     <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="279">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -849,27 +849,15 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
-    <t>oil_bbl</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
     <t>42 gallons</t>
   </si>
   <si>
-    <t>koil_bbl</t>
-  </si>
-  <si>
-    <t>1000 oil_bbl</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
@@ -946,6 +934,42 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>Unit Description</t>
+  </si>
+  <si>
+    <t>Unit Relationships</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units are used to represent water flows (e.g. bbl/day), flow capacities, storage capacity, costs etc. </t>
+  </si>
+  <si>
+    <t>kbbl</t>
+  </si>
+  <si>
+    <t>1000 bbl</t>
+  </si>
+  <si>
+    <t>Distance units are used for defining lengths of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>This unit applies to diameter of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>Concentration unit defines water quality (e.g., TDS concentration)</t>
+  </si>
+  <si>
+    <t>Currency unit defines costs</t>
+  </si>
+  <si>
+    <t>Time units refers to input data relative to time (e.g., water flows in bbl/day)</t>
+  </si>
+  <si>
+    <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1462,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1584,9 +1608,6 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1627,6 +1648,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5111,303 +5138,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B43807B-0CC1-4E48-B257-F8C02EE676B6}">
-  <dimension ref="A1:AY12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B399ED-BC37-4A9B-B5AA-696EEB32BD80}">
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="47" width="9.33203125" style="1"/>
-    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="G3" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="72" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="B4" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73" t="s">
+      <c r="D4" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="F4" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="78"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="78"/>
+      <c r="AT8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU8" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="75" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="AV8" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="AW8" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX8" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY8" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ8" s="59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="73" t="s">
+      <c r="AW9" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="AX9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="AY9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AT10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="AY10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="79"/>
-      <c r="AS8" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT8" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU8" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV8" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW8" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX8" s="59" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AY8" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AS10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT11" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT12" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{2A805D45-923B-4499-B425-78615666508C}">
-      <formula1>$AU$9:$AU$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{2FD2B931-D1F3-4A46-80CA-ECE299B77248}">
+      <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{2E62A0ED-C356-4531-96AB-AE29E92E8803}">
-      <formula1>$AY$9:$AY$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{32C849DF-A699-444C-AEB8-996557BF478D}">
+      <formula1>$AZ$9:$AZ$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{4185B2CC-8088-4F30-A77D-C1AD455FA391}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C333D517-6103-4E7E-A280-44C81548A9EA}">
+      <formula1>$AY$9:$AY$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{F4D1FC9C-2DCD-4562-8813-9ADDAFE624B3}">
       <formula1>$AX$9:$AX$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{F062F206-A234-4F44-8D74-740D1BA72732}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{4E595FB9-2C92-4FEB-ABBB-81E4CB9424E1}">
       <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{65EEA3C0-2CFE-4C13-B168-6A5598EAD5B1}">
-      <formula1>$AV$9:$AV$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{4E7EBF09-991F-4457-BECE-76498C13C6BC}">
+      <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{18C1229B-8F2F-47BA-8153-C67FBE675AC1}">
-      <formula1>$AT$9:$AT$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{34979535-B76D-4F7E-BF1F-E6777392E2E3}">
-      <formula1>$AS$9:$AS$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{CDD785C1-D2CE-4458-BD16-F8FC71E4262A}">
+      <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
@@ -1,90 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{81BFF46E-F655-4AC7-958E-AFD75318A040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DE77C4-6F42-474E-8C2F-698691AF889F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE5324-CE4A-43E7-9AAD-5538FECC344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="48" activeTab="53" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-10875" yWindow="-14580" windowWidth="21600" windowHeight="12675" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="ProductionPads" sheetId="1" r:id="rId3"/>
-    <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId4"/>
-    <sheet name="CompletionsPads" sheetId="3" r:id="rId5"/>
-    <sheet name="SWDSites" sheetId="4" r:id="rId6"/>
-    <sheet name="FreshwaterSources" sheetId="35" r:id="rId7"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId8"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId9"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId10"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId11"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId12"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId13"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId14"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId15"/>
-    <sheet name="PNA" sheetId="56" r:id="rId16"/>
-    <sheet name="CNA" sheetId="57" r:id="rId17"/>
-    <sheet name="CCA" sheetId="73" r:id="rId18"/>
-    <sheet name="NNA" sheetId="58" r:id="rId19"/>
-    <sheet name="NCA" sheetId="59" r:id="rId20"/>
-    <sheet name="NKA" sheetId="60" r:id="rId21"/>
-    <sheet name="NRA" sheetId="61" r:id="rId22"/>
-    <sheet name="NSA" sheetId="76" r:id="rId23"/>
-    <sheet name="SNA" sheetId="77" r:id="rId24"/>
-    <sheet name="FCA" sheetId="41" r:id="rId25"/>
-    <sheet name="RCA" sheetId="83" r:id="rId26"/>
-    <sheet name="RNA" sheetId="62" r:id="rId27"/>
-    <sheet name="PCT" sheetId="42" r:id="rId28"/>
-    <sheet name="FCT" sheetId="70" r:id="rId29"/>
-    <sheet name="PKT" sheetId="43" r:id="rId30"/>
-    <sheet name="CKT" sheetId="44" r:id="rId31"/>
-    <sheet name="CCT" sheetId="74" r:id="rId32"/>
-    <sheet name="CST" sheetId="64" r:id="rId33"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId34"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId35"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId36"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId37"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId38"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId39"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId40"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId41"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId42"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId43"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId44"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId45"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId46"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId47"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId48"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId49"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId50"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId51"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId52"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId53"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId54"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId55"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId56"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId57"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId58"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId59"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId60"/>
-    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId61"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId62"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId63"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId64"/>
-    <sheet name="Economics" sheetId="95" r:id="rId65"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId66"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId67"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId68"/>
+    <sheet name="Units" sheetId="104" r:id="rId3"/>
+    <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
+    <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
+    <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
+    <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
+    <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId11"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId12"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId13"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId14"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId15"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId16"/>
+    <sheet name="PNA" sheetId="56" r:id="rId17"/>
+    <sheet name="CNA" sheetId="57" r:id="rId18"/>
+    <sheet name="CCA" sheetId="73" r:id="rId19"/>
+    <sheet name="NNA" sheetId="58" r:id="rId20"/>
+    <sheet name="NCA" sheetId="59" r:id="rId21"/>
+    <sheet name="NKA" sheetId="60" r:id="rId22"/>
+    <sheet name="NRA" sheetId="61" r:id="rId23"/>
+    <sheet name="NSA" sheetId="76" r:id="rId24"/>
+    <sheet name="SNA" sheetId="77" r:id="rId25"/>
+    <sheet name="FCA" sheetId="41" r:id="rId26"/>
+    <sheet name="RCA" sheetId="83" r:id="rId27"/>
+    <sheet name="RNA" sheetId="62" r:id="rId28"/>
+    <sheet name="PCT" sheetId="42" r:id="rId29"/>
+    <sheet name="FCT" sheetId="70" r:id="rId30"/>
+    <sheet name="PKT" sheetId="43" r:id="rId31"/>
+    <sheet name="CKT" sheetId="44" r:id="rId32"/>
+    <sheet name="CCT" sheetId="74" r:id="rId33"/>
+    <sheet name="CST" sheetId="64" r:id="rId34"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId35"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId36"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId37"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId38"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId39"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId40"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId41"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId42"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId43"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId44"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId45"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId46"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId47"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId48"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId49"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId50"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId51"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId52"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId53"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId54"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId55"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId56"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId57"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId58"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId59"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId60"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId61"/>
+    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId62"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId63"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId64"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId65"/>
+    <sheet name="Economics" sheetId="95" r:id="rId66"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId67"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId68"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId69"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="60">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="279">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -843,6 +844,132 @@
   </si>
   <si>
     <t>Table of Node Capacity Capacity  [bbl/week] * absence of node or empty cell signifies no max capacity</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>42 gallons</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>kmeter</t>
+  </si>
+  <si>
+    <t>1000 m</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>mg/liter</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>kUSD</t>
+  </si>
+  <si>
+    <t>1000 USD</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>decision_period</t>
+  </si>
+  <si>
+    <t>decision period</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fortnight</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>30.44 days</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>kg/liter</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>Unit Description</t>
+  </si>
+  <si>
+    <t>Unit Relationships</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units are used to represent water flows (e.g. bbl/day), flow capacities, storage capacity, costs etc. </t>
+  </si>
+  <si>
+    <t>kbbl</t>
+  </si>
+  <si>
+    <t>1000 bbl</t>
+  </si>
+  <si>
+    <t>Distance units are used for defining lengths of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>This unit applies to diameter of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>Concentration unit defines water quality (e.g., TDS concentration)</t>
+  </si>
+  <si>
+    <t>Currency unit defines costs</t>
+  </si>
+  <si>
+    <t>Time units refers to input data relative to time (e.g., water flows in bbl/day)</t>
+  </si>
+  <si>
+    <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1048,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,8 +1067,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1207,13 +1340,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1358,6 +1607,53 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2346,6 +2642,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -2521,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -2735,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -2907,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3067,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3235,7 +3689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3403,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -3538,7 +3992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3637,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3709,289 +4163,6 @@
       <c r="E6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4069,6 +4240,289 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4180,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4298,7 +4752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4399,7 +4853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4431,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4463,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4535,7 +4989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4581,7 +5035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4619,7 +5073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4683,7 +5137,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B399ED-BC37-4A9B-B5AA-696EEB32BD80}">
+  <dimension ref="A1:AZ12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="78"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="78"/>
+      <c r="AT8" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU8" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV8" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW8" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX8" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY8" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ8" s="59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AT10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{2FD2B931-D1F3-4A46-80CA-ECE299B77248}">
+      <formula1>$AV$9:$AV$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{32C849DF-A699-444C-AEB8-996557BF478D}">
+      <formula1>$AZ$9:$AZ$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C333D517-6103-4E7E-A280-44C81548A9EA}">
+      <formula1>$AY$9:$AY$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{F4D1FC9C-2DCD-4562-8813-9ADDAFE624B3}">
+      <formula1>$AX$9:$AX$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{4E595FB9-2C92-4FEB-ABBB-81E4CB9424E1}">
+      <formula1>$AW$9:$AW$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{4E7EBF09-991F-4457-BECE-76498C13C6BC}">
+      <formula1>$AU$9:$AU$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{CDD785C1-D2CE-4458-BD16-F8FC71E4262A}">
+      <formula1>$AT$9:$AT$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4754,91 +5538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
-  <dimension ref="A1:R5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4917,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4974,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5023,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5055,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
@@ -5448,7 +6148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
@@ -6500,7 +7200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E83FA-0F3B-443C-8B3E-ADC37406AEAD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6600,7 +7300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
@@ -7112,7 +7812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -7374,7 +8074,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7422,7 +8206,1301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="44">
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
+  <dimension ref="A1:BA17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="C3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="D3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="F3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="G3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="H3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="I3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="J3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="K3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="L3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="M3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="N3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="O3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="P3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="R3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="S3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="T3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="U3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="V3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="W3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="X3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AA3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AB3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AD3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AE3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AF3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AH3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AI3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AJ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AK3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AL3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AM3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AN3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AO3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AP3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AQ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AR3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AS3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AT3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AU3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AV3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AW3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AX3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AY3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AZ3" s="40">
+        <v>250000</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="D4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="F4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="H4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="I4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="J4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="K4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="L4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="M4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="N4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="O4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="P4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="R4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="S4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="T4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="U4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="V4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="W4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="X4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AB4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AE4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AH4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AJ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AK4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AM4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AN4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AP4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AQ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AS4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AT4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AU4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AV4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AW4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AX4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AY4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AZ4" s="40">
+        <v>150000</v>
+      </c>
+      <c r="BA4" s="35">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="C5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="D5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="F5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="G5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="H5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="I5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="K5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="L5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="M5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="N5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="O5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="P5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="R5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="S5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="T5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="U5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="V5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="W5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="X5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AE5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AH5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AI5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AJ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AK5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AL5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AM5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AN5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AO5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AV5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>250000</v>
+      </c>
+      <c r="BA5" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="D6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="H6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="I6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="K6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="L6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="M6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="O6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="P6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="R6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="S6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="T6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="U6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="V6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="W6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="X6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AD6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AG6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AH6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AJ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AK6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AL6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AM6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AN6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AO6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AT6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AU6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AV6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AW6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AX6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AY6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="AZ6" s="40">
+        <v>150000</v>
+      </c>
+      <c r="BA6" s="35">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="35">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36">
+        <v>210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -7604,1301 +9682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="44">
-        <v>75000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
-  <dimension ref="A1:BA17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA2" s="28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="C3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="D3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="E3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="F3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="G3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="H3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="I3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="J3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="K3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="L3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="M3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="N3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="O3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="P3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="R3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="S3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="T3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="U3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="V3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="W3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="X3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AB3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AD3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AE3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AF3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AG3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AH3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AI3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AJ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AK3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AL3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AM3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AN3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AO3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AP3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AQ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AR3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AS3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AT3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AU3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AV3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AW3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AX3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AY3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AZ3" s="40">
-        <v>250000</v>
-      </c>
-      <c r="BA3" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="D4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="H4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="J4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="K4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="L4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="M4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="N4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="O4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="P4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="R4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="S4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="T4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="U4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="V4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="W4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="X4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Y4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AB4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AG4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AH4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AJ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AK4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AM4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AN4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AO4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AP4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AQ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AR4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AS4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AT4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AU4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AV4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AW4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AX4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AY4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AZ4" s="40">
-        <v>150000</v>
-      </c>
-      <c r="BA4" s="35">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="C5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="D5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="E5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="F5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="G5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="H5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="I5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="K5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="L5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="M5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="N5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="O5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="P5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="R5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="S5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="T5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="U5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="V5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="W5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="X5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Y5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AB5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AE5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AF5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AG5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AH5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AI5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AJ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AK5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AL5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AM5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AN5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AO5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AP5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AQ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AR5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AS5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AT5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AU5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AV5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AW5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AX5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AY5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="AZ5" s="40">
-        <v>250000</v>
-      </c>
-      <c r="BA5" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="D6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="F6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="G6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="H6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="I6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="J6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="K6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="L6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="M6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="N6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="O6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="P6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="R6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="S6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="T6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="U6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="V6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="W6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="X6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Y6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AA6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AB6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AE6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AF6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AG6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AH6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AI6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AJ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AL6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AM6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AN6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AO6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AP6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AQ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AR6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AS6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AT6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AU6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AV6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AW6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AX6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AY6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="AZ6" s="40">
-        <v>150000</v>
-      </c>
-      <c r="BA6" s="35">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="35">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="36">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -9000,7 +9784,646 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="36">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="36">
+        <v>350000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="36">
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34">
+        <v>20</v>
+      </c>
+      <c r="C3" s="34">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>20</v>
+      </c>
+      <c r="E3" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="34">
+        <v>20</v>
+      </c>
+      <c r="C4" s="34">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA283BC5-D620-4970-8035-9A1157B6300D}">
   <dimension ref="A1:T7"/>
   <sheetViews>
@@ -9141,646 +10564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="32">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="32">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="32">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="12">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="36">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="36">
-        <v>350000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="36">
-        <v>250000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="34">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34">
-        <v>20</v>
-      </c>
-      <c r="E3" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="34">
-        <v>20</v>
-      </c>
-      <c r="C4" s="34">
-        <v>20</v>
-      </c>
-      <c r="D4" s="34">
-        <v>20</v>
-      </c>
-      <c r="E4" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -9874,7 +10658,1730 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="36">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="58">
+        <v>14.26</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="58">
+        <v>16.847000000000001</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="58">
+        <v>12.562999999999999</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="58">
+        <v>25.074000000000002</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="58">
+        <v>11.209999999999999</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="58">
+        <v>35.07985</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="58">
+        <v>21.292999999999999</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="58">
+        <v>30.886050000000001</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="60">
+        <v>40.752409775985356</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="60">
+        <v>41.716999999999999</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="60">
+        <v>40.752409775985356</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="58">
+        <v>8.2970000000000006</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="58">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="58">
+        <v>8.2970000000000006</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="58">
+        <v>8.3129999999999988</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="58">
+        <v>11.209999999999999</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="58">
+        <v>8.3129999999999988</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="58">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="58">
+        <v>13.163</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="60">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="58">
+        <v>14.431000000000001</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="58">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="58">
+        <v>11.53</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="58">
+        <v>11.53</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="58">
+        <v>6.0780000000000003</v>
+      </c>
+      <c r="J15" s="58">
+        <v>24.449000000000002</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="58">
+        <v>14.431000000000001</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="58">
+        <v>6.0780000000000003</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" s="58">
+        <v>17.599</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="58">
+        <v>24.449000000000002</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="58">
+        <v>9.9379999999999988</v>
+      </c>
+      <c r="L17" s="58">
+        <v>38.850999999999999</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" s="58">
+        <v>9.9379999999999988</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>21.292999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="58">
+        <v>38.850999999999999</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="58">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" s="58">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="58">
+        <v>17.599</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" s="58">
+        <v>35.07985</v>
+      </c>
+      <c r="Q24" s="58">
+        <v>30.886050000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="35">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="35">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="36">
+        <v>350000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="52">
+        <v>30</v>
+      </c>
+      <c r="D3" s="52">
+        <v>30</v>
+      </c>
+      <c r="E3" s="52">
+        <v>30</v>
+      </c>
+      <c r="F3" s="52">
+        <v>30</v>
+      </c>
+      <c r="G3" s="52">
+        <v>30</v>
+      </c>
+      <c r="H3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="56">
+        <v>30</v>
+      </c>
+      <c r="D4" s="56">
+        <v>30</v>
+      </c>
+      <c r="E4" s="56">
+        <v>30</v>
+      </c>
+      <c r="F4" s="56">
+        <v>30</v>
+      </c>
+      <c r="G4" s="56">
+        <v>30</v>
+      </c>
+      <c r="H4" s="57">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="50">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="36">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="63">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="64">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="64">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="64">
+        <v>240977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
@@ -9947,1730 +12454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="36">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
-  <dimension ref="A1:Q24"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="58">
-        <v>14.26</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="58">
-        <v>16.847000000000001</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="58">
-        <v>12.562999999999999</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="58">
-        <v>25.074000000000002</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="58">
-        <v>11.209999999999999</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="58">
-        <v>35.07985</v>
-      </c>
-      <c r="P7" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="58">
-        <v>21.292999999999999</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="58">
-        <v>30.886050000000001</v>
-      </c>
-      <c r="P8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="60">
-        <v>40.752409775985356</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="60">
-        <v>41.716999999999999</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="60">
-        <v>40.752409775985356</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="58">
-        <v>8.2970000000000006</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="58">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P10" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="58">
-        <v>8.2970000000000006</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="58">
-        <v>8.3129999999999988</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O11" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P11" s="58">
-        <v>11.209999999999999</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="58">
-        <v>8.3129999999999988</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="58">
-        <v>12.532999999999999</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="58">
-        <v>13.163</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="60">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="58">
-        <v>14.431000000000001</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q13" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="58">
-        <v>12.532999999999999</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="58">
-        <v>11.53</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="58">
-        <v>11.53</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I15" s="58">
-        <v>6.0780000000000003</v>
-      </c>
-      <c r="J15" s="58">
-        <v>24.449000000000002</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P15" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="58">
-        <v>14.431000000000001</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="58">
-        <v>6.0780000000000003</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O16" s="58">
-        <v>17.599</v>
-      </c>
-      <c r="P16" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="58">
-        <v>24.449000000000002</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="58">
-        <v>9.9379999999999988</v>
-      </c>
-      <c r="L17" s="58">
-        <v>38.850999999999999</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J18" s="58">
-        <v>9.9379999999999988</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P18" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q18" s="58">
-        <v>21.292999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J19" s="58">
-        <v>38.850999999999999</v>
-      </c>
-      <c r="K19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="58">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P21" s="58">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="58">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="58">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="58">
-        <v>17.599</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O24" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="P24" s="58">
-        <v>35.07985</v>
-      </c>
-      <c r="Q24" s="58">
-        <v>30.886050000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="35">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="35">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="36">
-        <v>350000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="52">
-        <v>30</v>
-      </c>
-      <c r="D3" s="52">
-        <v>30</v>
-      </c>
-      <c r="E3" s="52">
-        <v>30</v>
-      </c>
-      <c r="F3" s="52">
-        <v>30</v>
-      </c>
-      <c r="G3" s="52">
-        <v>30</v>
-      </c>
-      <c r="H3" s="53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="56">
-        <v>30</v>
-      </c>
-      <c r="D4" s="56">
-        <v>30</v>
-      </c>
-      <c r="E4" s="56">
-        <v>30</v>
-      </c>
-      <c r="F4" s="56">
-        <v>30</v>
-      </c>
-      <c r="G4" s="56">
-        <v>30</v>
-      </c>
-      <c r="H4" s="57">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="49">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="36">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="63">
-        <v>142277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="64">
-        <v>140998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="64">
-        <v>172490.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="64">
-        <v>257547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="64">
-        <v>165376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="64">
-        <v>240977</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -11777,7 +12561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -11951,162 +12735,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
-  <dimension ref="A1:T8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
+++ b/pareto/case_studies/strategic_water_treatment_toy_case_study_t52.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruudw\Documents\GitHub\ParetoAndresIPOPT\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE5324-CE4A-43E7-9AAD-5538FECC344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32C6A3-931E-45C4-8CEC-A65ECD1C8EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10875" yWindow="-14580" windowWidth="21600" windowHeight="12675" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="26955" yWindow="5355" windowWidth="28800" windowHeight="15435" tabRatio="834" firstSheet="54" activeTab="57" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -37,55 +37,57 @@
     <sheet name="NKA" sheetId="60" r:id="rId22"/>
     <sheet name="NRA" sheetId="61" r:id="rId23"/>
     <sheet name="NSA" sheetId="76" r:id="rId24"/>
-    <sheet name="SNA" sheetId="77" r:id="rId25"/>
-    <sheet name="FCA" sheetId="41" r:id="rId26"/>
-    <sheet name="RCA" sheetId="83" r:id="rId27"/>
-    <sheet name="RNA" sheetId="62" r:id="rId28"/>
-    <sheet name="PCT" sheetId="42" r:id="rId29"/>
-    <sheet name="FCT" sheetId="70" r:id="rId30"/>
-    <sheet name="PKT" sheetId="43" r:id="rId31"/>
-    <sheet name="CKT" sheetId="44" r:id="rId32"/>
-    <sheet name="CCT" sheetId="74" r:id="rId33"/>
-    <sheet name="CST" sheetId="64" r:id="rId34"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId35"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId36"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId37"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId38"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId39"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId40"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId41"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId42"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId43"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId44"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId45"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId46"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId47"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId48"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId49"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId50"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId51"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId52"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId53"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId54"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId55"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId56"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId57"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId58"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId59"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId60"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId61"/>
-    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId62"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId63"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId64"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId65"/>
-    <sheet name="Economics" sheetId="95" r:id="rId66"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId67"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId68"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId69"/>
+    <sheet name="FRA" sheetId="105" r:id="rId25"/>
+    <sheet name="SNA" sheetId="77" r:id="rId26"/>
+    <sheet name="FCA" sheetId="41" r:id="rId27"/>
+    <sheet name="RCA" sheetId="83" r:id="rId28"/>
+    <sheet name="RNA" sheetId="62" r:id="rId29"/>
+    <sheet name="PCT" sheetId="42" r:id="rId30"/>
+    <sheet name="FCT" sheetId="70" r:id="rId31"/>
+    <sheet name="PKT" sheetId="43" r:id="rId32"/>
+    <sheet name="CKT" sheetId="44" r:id="rId33"/>
+    <sheet name="CCT" sheetId="74" r:id="rId34"/>
+    <sheet name="CST" sheetId="64" r:id="rId35"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId36"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId37"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId38"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId39"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId40"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId41"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId42"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId43"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId44"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId45"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId46"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId47"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId48"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId49"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId50"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId51"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId52"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId53"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId54"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId55"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId56"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId57"/>
+    <sheet name="TreatmentMaxQuality" sheetId="106" r:id="rId58"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId59"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId61"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId62"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId63"/>
+    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId64"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId65"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId66"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId67"/>
+    <sheet name="Economics" sheetId="95" r:id="rId68"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId69"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId70"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId71"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="282">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -970,6 +972,15 @@
   </si>
   <si>
     <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Table of max quality for each treatment site and component [mg/L]</t>
   </si>
 </sst>
 </file>
@@ -2090,15 +2101,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2110,7 +2121,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -2124,7 +2135,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2136,7 +2147,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2150,7 +2161,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -2164,7 +2175,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -2178,7 +2189,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2192,7 +2203,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2206,7 +2217,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2220,7 +2231,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2232,7 +2243,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2246,7 +2257,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2260,7 +2271,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2272,7 +2283,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2286,7 +2297,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2300,7 +2311,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2314,7 +2325,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2328,7 +2339,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2340,7 +2351,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2352,7 +2363,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2368,7 +2379,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2380,7 +2391,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2396,7 +2407,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2412,7 +2423,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2428,7 +2439,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2444,7 +2455,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2460,7 +2471,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2476,7 +2487,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2492,7 +2503,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2508,7 +2519,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2527,7 +2538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2543,7 +2554,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2559,7 +2570,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2575,7 +2586,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2591,7 +2602,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2607,7 +2618,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2649,30 +2660,30 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2692,7 +2703,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2712,7 +2723,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2732,7 +2743,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2752,7 +2763,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2772,7 +2783,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2807,28 +2818,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2849,7 +2860,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2869,7 +2880,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2889,7 +2900,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2909,7 +2920,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2929,7 +2940,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2949,7 +2960,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2983,30 +2994,30 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
@@ -3029,7 +3040,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -3052,7 +3063,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -3075,7 +3086,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -3098,7 +3109,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -3121,7 +3132,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -3144,7 +3155,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
@@ -3167,17 +3178,17 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>131</v>
       </c>
@@ -3197,30 +3208,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -3243,7 +3254,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3266,7 +3277,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -3289,7 +3300,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -3312,7 +3323,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -3335,7 +3346,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3369,28 +3380,28 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3411,7 +3422,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3432,7 +3443,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3453,7 +3464,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3474,7 +3485,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3495,7 +3506,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3529,30 +3540,30 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -3575,7 +3586,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -3621,7 +3632,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3642,7 +3653,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3663,7 +3674,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3697,30 +3708,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>158</v>
       </c>
@@ -3743,7 +3754,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>159</v>
       </c>
@@ -3766,7 +3777,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -3789,7 +3800,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3810,7 +3821,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3831,7 +3842,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3865,17 +3876,17 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>206</v>
       </c>
@@ -3913,7 +3924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>121</v>
       </c>
@@ -3931,7 +3942,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3949,7 +3960,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3978,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
@@ -4000,17 +4011,17 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -4048,7 +4059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4077,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -4099,17 +4110,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -4126,7 +4137,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4135,7 +4146,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -4144,7 +4155,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
@@ -4153,7 +4164,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -4176,61 +4187,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="37"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="38"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="39"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="39"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="39"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="39"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="39"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="39"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="39"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="39"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="39"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="39"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="39"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="39"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="39"/>
     </row>
   </sheetData>
@@ -4247,17 +4258,17 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
@@ -4313,7 +4324,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
@@ -4335,7 +4346,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
@@ -4355,7 +4366,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4386,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
@@ -4395,7 +4406,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
@@ -4415,7 +4426,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
@@ -4437,7 +4448,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -4457,7 +4468,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>130</v>
       </c>
@@ -4497,7 +4508,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
@@ -4530,17 +4541,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -4551,77 +4562,77 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
@@ -4636,24 +4647,24 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -4663,87 +4674,103 @@
       <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="58">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4760,17 +4787,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -4778,49 +4805,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -4828,19 +4855,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
@@ -4861,21 +4888,21 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12"/>
     </row>
@@ -4886,6 +4913,76 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F831367F-236B-40B0-83A2-DCA5F4C3A756}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="58">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4893,21 +4990,21 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12"/>
     </row>
@@ -4917,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4925,17 +5022,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>210</v>
       </c>
@@ -4946,7 +5043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4955,7 +5052,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -4964,7 +5061,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -4973,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
@@ -4989,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4997,17 +5094,17 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -5018,7 +5115,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -5035,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5043,17 +5140,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -5061,77 +5158,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5141,35 +5174,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B399ED-BC37-4A9B-B5AA-696EEB32BD80}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -5189,7 +5222,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="69"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>238</v>
       </c>
@@ -5219,7 +5252,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>241</v>
       </c>
@@ -5243,7 +5276,7 @@
       <c r="J4" s="72"/>
       <c r="K4" s="74"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>245</v>
       </c>
@@ -5261,7 +5294,7 @@
       <c r="J5" s="76"/>
       <c r="K5" s="78"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>247</v>
       </c>
@@ -5285,7 +5318,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="78"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>250</v>
       </c>
@@ -5309,7 +5342,7 @@
       <c r="J7" s="76"/>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>254</v>
       </c>
@@ -5348,7 +5381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>257</v>
       </c>
@@ -5399,7 +5432,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>271</v>
       </c>
@@ -5422,7 +5455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>266</v>
       </c>
@@ -5430,7 +5463,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>243</v>
       </c>
@@ -5468,6 +5501,70 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5475,17 +5572,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>210</v>
       </c>
@@ -5496,7 +5593,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -5505,7 +5602,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -5514,7 +5611,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -5523,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
@@ -5538,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5546,17 +5643,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>206</v>
       </c>
@@ -5567,7 +5664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>121</v>
       </c>
@@ -5578,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -5600,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
@@ -5617,7 +5714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5625,17 +5722,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -5646,7 +5743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5657,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -5674,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5682,17 +5779,17 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -5703,14 +5800,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -5723,7 +5820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5731,21 +5828,21 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="12"/>
     </row>
@@ -5755,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
@@ -5763,17 +5860,17 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -5934,7 +6031,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -6011,7 +6108,7 @@
       <c r="AZ3" s="40"/>
       <c r="BA3" s="35"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -6096,1102 +6193,50 @@
       <c r="AZ4" s="40"/>
       <c r="BA4" s="35"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
-  <dimension ref="A1:BA8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA2" s="28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="40">
-        <f>5000*7</f>
-        <v>35000</v>
-      </c>
-      <c r="C3" s="40">
-        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
-        <v>30258.803095775282</v>
-      </c>
-      <c r="D3" s="40">
-        <f t="shared" ref="D3:BA3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
-        <v>27788.978378196462</v>
-      </c>
-      <c r="E3" s="40">
-        <f t="shared" si="0"/>
-        <v>26159.861851111425</v>
-      </c>
-      <c r="F3" s="40">
-        <f t="shared" si="0"/>
-        <v>24962.285351788229</v>
-      </c>
-      <c r="G3" s="40">
-        <f t="shared" si="0"/>
-        <v>24024.606427960101</v>
-      </c>
-      <c r="H3" s="40">
-        <f t="shared" si="0"/>
-        <v>23259.343684102365</v>
-      </c>
-      <c r="I3" s="40">
-        <f t="shared" si="0"/>
-        <v>22616.174536156115</v>
-      </c>
-      <c r="J3" s="40">
-        <f t="shared" si="0"/>
-        <v>22063.637694396301</v>
-      </c>
-      <c r="K3" s="40">
-        <f t="shared" si="0"/>
-        <v>21580.825065151876</v>
-      </c>
-      <c r="L3" s="40">
-        <f t="shared" si="0"/>
-        <v>21153.175883626711</v>
-      </c>
-      <c r="M3" s="40">
-        <f t="shared" si="0"/>
-        <v>20770.166724489769</v>
-      </c>
-      <c r="N3" s="40">
-        <f t="shared" si="0"/>
-        <v>20423.959488695262</v>
-      </c>
-      <c r="O3" s="40">
-        <f t="shared" si="0"/>
-        <v>20108.568590691943</v>
-      </c>
-      <c r="P3" s="40">
-        <f t="shared" si="0"/>
-        <v>19819.325940320385</v>
-      </c>
-      <c r="Q3" s="40">
-        <f t="shared" si="0"/>
-        <v>19552.52491626385</v>
-      </c>
-      <c r="R3" s="40">
-        <f t="shared" si="0"/>
-        <v>19305.176246215316</v>
-      </c>
-      <c r="S3" s="40">
-        <f t="shared" si="0"/>
-        <v>19074.836244893231</v>
-      </c>
-      <c r="T3" s="40">
-        <f t="shared" si="0"/>
-        <v>18859.483217791862</v>
-      </c>
-      <c r="U3" s="40">
-        <f t="shared" si="0"/>
-        <v>18657.426751165785</v>
-      </c>
-      <c r="V3" s="40">
-        <f t="shared" si="0"/>
-        <v>18467.239963673175</v>
-      </c>
-      <c r="W3" s="40">
-        <f t="shared" si="0"/>
-        <v>18287.708111798944</v>
-      </c>
-      <c r="X3" s="40">
-        <f t="shared" si="0"/>
-        <v>18117.789051491451</v>
-      </c>
-      <c r="Y3" s="40">
-        <f t="shared" si="0"/>
-        <v>17956.582433793134</v>
-      </c>
-      <c r="Z3" s="40">
-        <f t="shared" si="0"/>
-        <v>17803.305428117179</v>
-      </c>
-      <c r="AA3" s="40">
-        <f t="shared" si="0"/>
-        <v>17657.273388700607</v>
-      </c>
-      <c r="AB3" s="40">
-        <f t="shared" si="0"/>
-        <v>17517.884309541125</v>
-      </c>
-      <c r="AC3" s="40">
-        <f t="shared" si="0"/>
-        <v>17384.60621496111</v>
-      </c>
-      <c r="AD3" s="40">
-        <f t="shared" si="0"/>
-        <v>17256.966848071839</v>
-      </c>
-      <c r="AE3" s="40">
-        <f t="shared" si="0"/>
-        <v>17134.545174832736</v>
-      </c>
-      <c r="AF3" s="40">
-        <f t="shared" si="0"/>
-        <v>17016.964335098033</v>
-      </c>
-      <c r="AG3" s="40">
-        <f t="shared" si="0"/>
-        <v>16903.885756184794</v>
-      </c>
-      <c r="AH3" s="40">
-        <f t="shared" si="0"/>
-        <v>16795.004207436843</v>
-      </c>
-      <c r="AI3" s="40">
-        <f t="shared" si="0"/>
-        <v>16690.043621813351</v>
-      </c>
-      <c r="AJ3" s="40">
-        <f t="shared" si="0"/>
-        <v>16588.753546796474</v>
-      </c>
-      <c r="AK3" s="40">
-        <f t="shared" si="0"/>
-        <v>16490.90611481091</v>
-      </c>
-      <c r="AL3" s="40">
-        <f t="shared" si="0"/>
-        <v>16396.293444986528</v>
-      </c>
-      <c r="AM3" s="40">
-        <f t="shared" si="0"/>
-        <v>16304.725405006924</v>
-      </c>
-      <c r="AN3" s="40">
-        <f t="shared" si="0"/>
-        <v>16216.027675100382</v>
-      </c>
-      <c r="AO3" s="40">
-        <f t="shared" si="0"/>
-        <v>16130.040066782163</v>
-      </c>
-      <c r="AP3" s="40">
-        <f t="shared" si="0"/>
-        <v>16046.615057375167</v>
-      </c>
-      <c r="AQ3" s="40">
-        <f t="shared" si="0"/>
-        <v>15965.616508091967</v>
-      </c>
-      <c r="AR3" s="40">
-        <f t="shared" si="0"/>
-        <v>15886.918538915399</v>
-      </c>
-      <c r="AS3" s="40">
-        <f t="shared" si="0"/>
-        <v>15810.404537941047</v>
-      </c>
-      <c r="AT3" s="40">
-        <f t="shared" si="0"/>
-        <v>15735.966286456898</v>
-      </c>
-      <c r="AU3" s="40">
-        <f t="shared" si="0"/>
-        <v>15663.503183996372</v>
-      </c>
-      <c r="AV3" s="40">
-        <f t="shared" si="0"/>
-        <v>15592.92156004043</v>
-      </c>
-      <c r="AW3" s="40">
-        <f t="shared" si="0"/>
-        <v>15524.134061062965</v>
-      </c>
-      <c r="AX3" s="40">
-        <f t="shared" si="0"/>
-        <v>15457.05910329122</v>
-      </c>
-      <c r="AY3" s="40">
-        <f t="shared" si="0"/>
-        <v>15391.620382952713</v>
-      </c>
-      <c r="AZ3" s="40">
-        <f t="shared" si="0"/>
-        <v>15327.746436952839</v>
-      </c>
-      <c r="BA3" s="35">
-        <f t="shared" si="0"/>
-        <v>15265.37024791327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="40">
-        <f>13000*7</f>
-        <v>91000</v>
-      </c>
-      <c r="C4" s="40">
-        <f t="shared" ref="C4:BA4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
-        <v>71397.152908604316</v>
-      </c>
-      <c r="D4" s="40">
-        <f t="shared" si="1"/>
-        <v>61951.090169008989</v>
-      </c>
-      <c r="E4" s="40">
-        <f t="shared" si="1"/>
-        <v>56017.07080719369</v>
-      </c>
-      <c r="F4" s="40">
-        <f t="shared" si="1"/>
-        <v>51808.604067688932</v>
-      </c>
-      <c r="G4" s="40">
-        <f t="shared" si="1"/>
-        <v>48605.840193972173</v>
-      </c>
-      <c r="H4" s="40">
-        <f t="shared" si="1"/>
-        <v>46052.910067251345</v>
-      </c>
-      <c r="I4" s="40">
-        <f t="shared" si="1"/>
-        <v>43950.102966080478</v>
-      </c>
-      <c r="J4" s="40">
-        <f t="shared" si="1"/>
-        <v>42175.138166249249</v>
-      </c>
-      <c r="K4" s="40">
-        <f t="shared" si="1"/>
-        <v>40648.206885737643</v>
-      </c>
-      <c r="L4" s="40">
-        <f t="shared" si="1"/>
-        <v>39314.608251327569</v>
-      </c>
-      <c r="M4" s="40">
-        <f t="shared" si="1"/>
-        <v>38135.369281101288</v>
-      </c>
-      <c r="N4" s="40">
-        <f t="shared" si="1"/>
-        <v>37081.835160851289</v>
-      </c>
-      <c r="O4" s="40">
-        <f t="shared" si="1"/>
-        <v>36132.380900634584</v>
-      </c>
-      <c r="P4" s="40">
-        <f t="shared" si="1"/>
-        <v>35270.324199207498</v>
-      </c>
-      <c r="Q4" s="40">
-        <f t="shared" si="1"/>
-        <v>34482.551888111557</v>
-      </c>
-      <c r="R4" s="40">
-        <f t="shared" si="1"/>
-        <v>33758.587726172031</v>
-      </c>
-      <c r="S4" s="40">
-        <f t="shared" si="1"/>
-        <v>33089.942731837495</v>
-      </c>
-      <c r="T4" s="40">
-        <f t="shared" si="1"/>
-        <v>32469.651848585527</v>
-      </c>
-      <c r="U4" s="40">
-        <f t="shared" si="1"/>
-        <v>31891.936730566969</v>
-      </c>
-      <c r="V4" s="40">
-        <f t="shared" si="1"/>
-        <v>31351.95586946758</v>
-      </c>
-      <c r="W4" s="40">
-        <f t="shared" si="1"/>
-        <v>30845.616449031993</v>
-      </c>
-      <c r="X4" s="40">
-        <f t="shared" si="1"/>
-        <v>30369.430625054156</v>
-      </c>
-      <c r="Y4" s="40">
-        <f t="shared" si="1"/>
-        <v>29920.404305372314</v>
-      </c>
-      <c r="Z4" s="40">
-        <f t="shared" si="1"/>
-        <v>29495.950059808281</v>
-      </c>
-      <c r="AA4" s="40">
-        <f t="shared" si="1"/>
-        <v>29093.818188032514</v>
-      </c>
-      <c r="AB4" s="40">
-        <f t="shared" si="1"/>
-        <v>28712.041620084834</v>
-      </c>
-      <c r="AC4" s="40">
-        <f t="shared" si="1"/>
-        <v>28348.891473786171</v>
-      </c>
-      <c r="AD4" s="40">
-        <f t="shared" si="1"/>
-        <v>28002.840907809561</v>
-      </c>
-      <c r="AE4" s="40">
-        <f t="shared" si="1"/>
-        <v>27672.535494361153</v>
-      </c>
-      <c r="AF4" s="40">
-        <f t="shared" si="1"/>
-        <v>27356.768761213276</v>
-      </c>
-      <c r="AG4" s="40">
-        <f t="shared" si="1"/>
-        <v>27054.461866311904</v>
-      </c>
-      <c r="AH4" s="40">
-        <f t="shared" si="1"/>
-        <v>26764.646601508339</v>
-      </c>
-      <c r="AI4" s="40">
-        <f t="shared" si="1"/>
-        <v>26486.451097407004</v>
-      </c>
-      <c r="AJ4" s="40">
-        <f t="shared" si="1"/>
-        <v>26219.087734495715</v>
-      </c>
-      <c r="AK4" s="40">
-        <f t="shared" si="1"/>
-        <v>25961.842867713865</v>
-      </c>
-      <c r="AL4" s="40">
-        <f t="shared" si="1"/>
-        <v>25714.068050373437</v>
-      </c>
-      <c r="AM4" s="40">
-        <f t="shared" si="1"/>
-        <v>25475.172504644041</v>
-      </c>
-      <c r="AN4" s="40">
-        <f t="shared" si="1"/>
-        <v>25244.616633870617</v>
-      </c>
-      <c r="AO4" s="40">
-        <f t="shared" si="1"/>
-        <v>25021.906409932133</v>
-      </c>
-      <c r="AP4" s="40">
-        <f t="shared" si="1"/>
-        <v>24806.588498998015</v>
-      </c>
-      <c r="AQ4" s="40">
-        <f t="shared" si="1"/>
-        <v>24598.246013144959</v>
-      </c>
-      <c r="AR4" s="40">
-        <f t="shared" si="1"/>
-        <v>24396.49479468463</v>
-      </c>
-      <c r="AS4" s="40">
-        <f t="shared" si="1"/>
-        <v>24200.980155732937</v>
-      </c>
-      <c r="AT4" s="40">
-        <f t="shared" si="1"/>
-        <v>24011.374008299819</v>
-      </c>
-      <c r="AU4" s="40">
-        <f t="shared" si="1"/>
-        <v>23827.37233059607</v>
-      </c>
-      <c r="AV4" s="40">
-        <f t="shared" si="1"/>
-        <v>23648.692923806913</v>
-      </c>
-      <c r="AW4" s="40">
-        <f t="shared" si="1"/>
-        <v>23475.073420636596</v>
-      </c>
-      <c r="AX4" s="40">
-        <f t="shared" si="1"/>
-        <v>23306.269512772971</v>
-      </c>
-      <c r="AY4" s="40">
-        <f t="shared" si="1"/>
-        <v>23142.05336928229</v>
-      </c>
-      <c r="AZ4" s="40">
-        <f t="shared" si="1"/>
-        <v>22982.212222005313</v>
-      </c>
-      <c r="BA4" s="35">
-        <f t="shared" si="1"/>
-        <v>22826.547097429568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="40">
-        <f>8000*7</f>
-        <v>56000</v>
-      </c>
-      <c r="C5" s="40">
-        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
-        <v>47090.199254208019</v>
-      </c>
-      <c r="D5" s="40">
-        <f t="shared" ref="D5:BA5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
-        <v>42550.798396489176</v>
-      </c>
-      <c r="E5" s="40">
-        <f t="shared" si="2"/>
-        <v>39597.979746446661</v>
-      </c>
-      <c r="F5" s="40">
-        <f t="shared" si="2"/>
-        <v>37449.457078679632</v>
-      </c>
-      <c r="G5" s="40">
-        <f t="shared" si="2"/>
-        <v>35780.813837791255</v>
-      </c>
-      <c r="H5" s="40">
-        <f t="shared" si="2"/>
-        <v>34428.136565270812</v>
-      </c>
-      <c r="I5" s="40">
-        <f t="shared" si="2"/>
-        <v>33297.799220076187</v>
-      </c>
-      <c r="J5" s="40">
-        <f t="shared" si="2"/>
-        <v>32331.61507461904</v>
-      </c>
-      <c r="K5" s="40">
-        <f t="shared" si="2"/>
-        <v>31491.114210659547</v>
-      </c>
-      <c r="L5" s="40">
-        <f t="shared" si="2"/>
-        <v>30749.627259462297</v>
-      </c>
-      <c r="M5" s="40">
-        <f t="shared" si="2"/>
-        <v>30087.958091059176</v>
-      </c>
-      <c r="N5" s="40">
-        <f t="shared" si="2"/>
-        <v>29491.861719483888</v>
-      </c>
-      <c r="O5" s="40">
-        <f t="shared" si="2"/>
-        <v>28950.496621601553</v>
-      </c>
-      <c r="P5" s="40">
-        <f t="shared" si="2"/>
-        <v>28455.433896658426</v>
-      </c>
-      <c r="Q5" s="40">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-      <c r="R5" s="40">
-        <f t="shared" si="2"/>
-        <v>27578.827388305333</v>
-      </c>
-      <c r="S5" s="40">
-        <f t="shared" si="2"/>
-        <v>27187.539215610112</v>
-      </c>
-      <c r="T5" s="40">
-        <f t="shared" si="2"/>
-        <v>26822.523024840182</v>
-      </c>
-      <c r="U5" s="40">
-        <f t="shared" si="2"/>
-        <v>26480.765052088922</v>
-      </c>
-      <c r="V5" s="40">
-        <f t="shared" si="2"/>
-        <v>26159.726752779206</v>
-      </c>
-      <c r="W5" s="40">
-        <f t="shared" si="2"/>
-        <v>25857.251332869746</v>
-      </c>
-      <c r="X5" s="40">
-        <f t="shared" si="2"/>
-        <v>25571.491987816953</v>
-      </c>
-      <c r="Y5" s="40">
-        <f t="shared" si="2"/>
-        <v>25300.856101075653</v>
-      </c>
-      <c r="Z5" s="40">
-        <f t="shared" si="2"/>
-        <v>25043.961347997643</v>
-      </c>
-      <c r="AA5" s="40">
-        <f t="shared" si="2"/>
-        <v>24799.600799072254</v>
-      </c>
-      <c r="AB5" s="40">
-        <f t="shared" si="2"/>
-        <v>24566.714908446527</v>
-      </c>
-      <c r="AC5" s="40">
-        <f t="shared" si="2"/>
-        <v>24344.36882891952</v>
-      </c>
-      <c r="AD5" s="40">
-        <f t="shared" si="2"/>
-        <v>24131.733889698735</v>
-      </c>
-      <c r="AE5" s="40">
-        <f t="shared" si="2"/>
-        <v>23928.072358189107</v>
-      </c>
-      <c r="AF5" s="40">
-        <f t="shared" si="2"/>
-        <v>23732.724815241214</v>
-      </c>
-      <c r="AG5" s="40">
-        <f t="shared" si="2"/>
-        <v>23545.099627104009</v>
-      </c>
-      <c r="AH5" s="40">
-        <f t="shared" si="2"/>
-        <v>23364.664112224433</v>
-      </c>
-      <c r="AI5" s="40">
-        <f t="shared" si="2"/>
-        <v>23190.937087726914</v>
-      </c>
-      <c r="AJ5" s="40">
-        <f t="shared" si="2"/>
-        <v>23023.482546429106</v>
-      </c>
-      <c r="AK5" s="40">
-        <f t="shared" si="2"/>
-        <v>22861.904265976333</v>
-      </c>
-      <c r="AL5" s="40">
-        <f t="shared" si="2"/>
-        <v>22705.841190971114</v>
-      </c>
-      <c r="AM5" s="40">
-        <f t="shared" si="2"/>
-        <v>22554.96345964833</v>
-      </c>
-      <c r="AN5" s="40">
-        <f t="shared" si="2"/>
-        <v>22408.968970765996</v>
-      </c>
-      <c r="AO5" s="40">
-        <f t="shared" si="2"/>
-        <v>22267.580405477416</v>
-      </c>
-      <c r="AP5" s="40">
-        <f t="shared" si="2"/>
-        <v>22130.542634166668</v>
-      </c>
-      <c r="AQ5" s="40">
-        <f t="shared" si="2"/>
-        <v>21997.620450428727</v>
-      </c>
-      <c r="AR5" s="40">
-        <f t="shared" si="2"/>
-        <v>21868.596584212904</v>
-      </c>
-      <c r="AS5" s="40">
-        <f t="shared" si="2"/>
-        <v>21743.269954124502</v>
-      </c>
-      <c r="AT5" s="40">
-        <f t="shared" si="2"/>
-        <v>21621.454125381024</v>
-      </c>
-      <c r="AU5" s="40">
-        <f t="shared" si="2"/>
-        <v>21502.975945244358</v>
-      </c>
-      <c r="AV5" s="40">
-        <f t="shared" si="2"/>
-        <v>21387.674332133389</v>
-      </c>
-      <c r="AW5" s="40">
-        <f t="shared" si="2"/>
-        <v>21275.399198244588</v>
-      </c>
-      <c r="AX5" s="40">
-        <f t="shared" si="2"/>
-        <v>21166.010488516727</v>
-      </c>
-      <c r="AY5" s="40">
-        <f t="shared" si="2"/>
-        <v>21059.377321283806</v>
-      </c>
-      <c r="AZ5" s="40">
-        <f t="shared" si="2"/>
-        <v>20955.377218059901</v>
-      </c>
-      <c r="BA5" s="35">
-        <f t="shared" si="2"/>
-        <v>20853.895411663008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="40">
-        <f>2000*7</f>
-        <v>14000</v>
-      </c>
-      <c r="C6" s="40">
-        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
-        <v>13807.257862907029</v>
-      </c>
-      <c r="D6" s="40">
-        <f t="shared" ref="D6:BA6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
-        <v>13695.743400208396</v>
-      </c>
-      <c r="E6" s="40">
-        <f t="shared" si="3"/>
-        <v>13617.169263771997</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="3"/>
-        <v>13556.533000158817</v>
-      </c>
-      <c r="G6" s="40">
-        <f t="shared" si="3"/>
-        <v>13507.1900536346</v>
-      </c>
-      <c r="H6" s="40">
-        <f t="shared" si="3"/>
-        <v>13465.611329867192</v>
-      </c>
-      <c r="I6" s="40">
-        <f t="shared" si="3"/>
-        <v>13429.6976705537</v>
-      </c>
-      <c r="J6" s="40">
-        <f t="shared" si="3"/>
-        <v>13398.099091739417</v>
-      </c>
-      <c r="K6" s="40">
-        <f t="shared" si="3"/>
-        <v>13369.896204300103</v>
-      </c>
-      <c r="L6" s="40">
-        <f t="shared" si="3"/>
-        <v>13344.434735157942</v>
-      </c>
-      <c r="M6" s="40">
-        <f t="shared" si="3"/>
-        <v>13321.232576701854</v>
-      </c>
-      <c r="N6" s="40">
-        <f t="shared" si="3"/>
-        <v>13299.924286485162</v>
-      </c>
-      <c r="O6" s="40">
-        <f t="shared" si="3"/>
-        <v>13280.22627951134</v>
-      </c>
-      <c r="P6" s="40">
-        <f t="shared" si="3"/>
-        <v>13261.914097616605</v>
-      </c>
-      <c r="Q6" s="40">
-        <f t="shared" si="3"/>
-        <v>13244.807054158344</v>
-      </c>
-      <c r="R6" s="40">
-        <f t="shared" si="3"/>
-        <v>13228.757557697323</v>
-      </c>
-      <c r="S6" s="40">
-        <f t="shared" si="3"/>
-        <v>13213.643502316185</v>
-      </c>
-      <c r="T6" s="40">
-        <f t="shared" si="3"/>
-        <v>13199.362725186578</v>
-      </c>
-      <c r="U6" s="40">
-        <f t="shared" si="3"/>
-        <v>13185.828892362388</v>
-      </c>
-      <c r="V6" s="40">
-        <f t="shared" si="3"/>
-        <v>13172.968392914285</v>
-      </c>
-      <c r="W6" s="40">
-        <f t="shared" si="3"/>
-        <v>13160.717958789941</v>
-      </c>
-      <c r="X6" s="40">
-        <f t="shared" si="3"/>
-        <v>13149.022816058006</v>
-      </c>
-      <c r="Y6" s="40">
-        <f t="shared" si="3"/>
-        <v>13137.835231305709</v>
-      </c>
-      <c r="Z6" s="40">
-        <f t="shared" si="3"/>
-        <v>13127.113356028216</v>
-      </c>
-      <c r="AA6" s="40">
-        <f t="shared" si="3"/>
-        <v>13116.820298617173</v>
-      </c>
-      <c r="AB6" s="40">
-        <f t="shared" si="3"/>
-        <v>13106.923372216301</v>
-      </c>
-      <c r="AC6" s="40">
-        <f t="shared" si="3"/>
-        <v>13097.39347992625</v>
-      </c>
-      <c r="AD6" s="40">
-        <f t="shared" si="3"/>
-        <v>13088.204608333777</v>
-      </c>
-      <c r="AE6" s="40">
-        <f t="shared" si="3"/>
-        <v>13079.333407251032</v>
-      </c>
-      <c r="AF6" s="40">
-        <f t="shared" si="3"/>
-        <v>13070.758838642858</v>
-      </c>
-      <c r="AG6" s="40">
-        <f t="shared" si="3"/>
-        <v>13062.461881515304</v>
-      </c>
-      <c r="AH6" s="40">
-        <f t="shared" si="3"/>
-        <v>13054.425282396505</v>
-      </c>
-      <c r="AI6" s="40">
-        <f t="shared" si="3"/>
-        <v>13046.633343214795</v>
-      </c>
-      <c r="AJ6" s="40">
-        <f t="shared" si="3"/>
-        <v>13039.071740046933</v>
-      </c>
-      <c r="AK6" s="40">
-        <f t="shared" si="3"/>
-        <v>13031.727367500394</v>
-      </c>
-      <c r="AL6" s="40">
-        <f t="shared" si="3"/>
-        <v>13024.588204501091</v>
-      </c>
-      <c r="AM6" s="40">
-        <f t="shared" si="3"/>
-        <v>13017.643198049596</v>
-      </c>
-      <c r="AN6" s="40">
-        <f t="shared" si="3"/>
-        <v>13010.882162135753</v>
-      </c>
-      <c r="AO6" s="40">
-        <f t="shared" si="3"/>
-        <v>13004.295689501234</v>
-      </c>
-      <c r="AP6" s="40">
-        <f t="shared" si="3"/>
-        <v>12997.875074339925</v>
-      </c>
-      <c r="AQ6" s="40">
-        <f t="shared" si="3"/>
-        <v>12991.612244349395</v>
-      </c>
-      <c r="AR6" s="40">
-        <f t="shared" si="3"/>
-        <v>12985.499700808712</v>
-      </c>
-      <c r="AS6" s="40">
-        <f t="shared" si="3"/>
-        <v>12979.530465571725</v>
-      </c>
-      <c r="AT6" s="40">
-        <f t="shared" si="3"/>
-        <v>12973.698034040235</v>
-      </c>
-      <c r="AU6" s="40">
-        <f t="shared" si="3"/>
-        <v>12967.996333325775</v>
-      </c>
-      <c r="AV6" s="40">
-        <f t="shared" si="3"/>
-        <v>12962.419684928214</v>
-      </c>
-      <c r="AW6" s="40">
-        <f t="shared" si="3"/>
-        <v>12956.962771358765</v>
-      </c>
-      <c r="AX6" s="40">
-        <f t="shared" si="3"/>
-        <v>12951.620606217693</v>
-      </c>
-      <c r="AY6" s="40">
-        <f t="shared" si="3"/>
-        <v>12946.388507306605</v>
-      </c>
-      <c r="AZ6" s="40">
-        <f t="shared" si="3"/>
-        <v>12941.262072413576</v>
-      </c>
-      <c r="BA6" s="35">
-        <f t="shared" si="3"/>
-        <v>12936.237157458605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7201,6 +6246,1058 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
+  <dimension ref="A1:BA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="40">
+        <f>5000*7</f>
+        <v>35000</v>
+      </c>
+      <c r="C3" s="40">
+        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
+        <v>30258.803095775282</v>
+      </c>
+      <c r="D3" s="40">
+        <f t="shared" ref="D3:BA3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
+        <v>27788.978378196462</v>
+      </c>
+      <c r="E3" s="40">
+        <f t="shared" si="0"/>
+        <v>26159.861851111425</v>
+      </c>
+      <c r="F3" s="40">
+        <f t="shared" si="0"/>
+        <v>24962.285351788229</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" si="0"/>
+        <v>24024.606427960101</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="0"/>
+        <v>23259.343684102365</v>
+      </c>
+      <c r="I3" s="40">
+        <f t="shared" si="0"/>
+        <v>22616.174536156115</v>
+      </c>
+      <c r="J3" s="40">
+        <f t="shared" si="0"/>
+        <v>22063.637694396301</v>
+      </c>
+      <c r="K3" s="40">
+        <f t="shared" si="0"/>
+        <v>21580.825065151876</v>
+      </c>
+      <c r="L3" s="40">
+        <f t="shared" si="0"/>
+        <v>21153.175883626711</v>
+      </c>
+      <c r="M3" s="40">
+        <f t="shared" si="0"/>
+        <v>20770.166724489769</v>
+      </c>
+      <c r="N3" s="40">
+        <f t="shared" si="0"/>
+        <v>20423.959488695262</v>
+      </c>
+      <c r="O3" s="40">
+        <f t="shared" si="0"/>
+        <v>20108.568590691943</v>
+      </c>
+      <c r="P3" s="40">
+        <f t="shared" si="0"/>
+        <v>19819.325940320385</v>
+      </c>
+      <c r="Q3" s="40">
+        <f t="shared" si="0"/>
+        <v>19552.52491626385</v>
+      </c>
+      <c r="R3" s="40">
+        <f t="shared" si="0"/>
+        <v>19305.176246215316</v>
+      </c>
+      <c r="S3" s="40">
+        <f t="shared" si="0"/>
+        <v>19074.836244893231</v>
+      </c>
+      <c r="T3" s="40">
+        <f t="shared" si="0"/>
+        <v>18859.483217791862</v>
+      </c>
+      <c r="U3" s="40">
+        <f t="shared" si="0"/>
+        <v>18657.426751165785</v>
+      </c>
+      <c r="V3" s="40">
+        <f t="shared" si="0"/>
+        <v>18467.239963673175</v>
+      </c>
+      <c r="W3" s="40">
+        <f t="shared" si="0"/>
+        <v>18287.708111798944</v>
+      </c>
+      <c r="X3" s="40">
+        <f t="shared" si="0"/>
+        <v>18117.789051491451</v>
+      </c>
+      <c r="Y3" s="40">
+        <f t="shared" si="0"/>
+        <v>17956.582433793134</v>
+      </c>
+      <c r="Z3" s="40">
+        <f t="shared" si="0"/>
+        <v>17803.305428117179</v>
+      </c>
+      <c r="AA3" s="40">
+        <f t="shared" si="0"/>
+        <v>17657.273388700607</v>
+      </c>
+      <c r="AB3" s="40">
+        <f t="shared" si="0"/>
+        <v>17517.884309541125</v>
+      </c>
+      <c r="AC3" s="40">
+        <f t="shared" si="0"/>
+        <v>17384.60621496111</v>
+      </c>
+      <c r="AD3" s="40">
+        <f t="shared" si="0"/>
+        <v>17256.966848071839</v>
+      </c>
+      <c r="AE3" s="40">
+        <f t="shared" si="0"/>
+        <v>17134.545174832736</v>
+      </c>
+      <c r="AF3" s="40">
+        <f t="shared" si="0"/>
+        <v>17016.964335098033</v>
+      </c>
+      <c r="AG3" s="40">
+        <f t="shared" si="0"/>
+        <v>16903.885756184794</v>
+      </c>
+      <c r="AH3" s="40">
+        <f t="shared" si="0"/>
+        <v>16795.004207436843</v>
+      </c>
+      <c r="AI3" s="40">
+        <f t="shared" si="0"/>
+        <v>16690.043621813351</v>
+      </c>
+      <c r="AJ3" s="40">
+        <f t="shared" si="0"/>
+        <v>16588.753546796474</v>
+      </c>
+      <c r="AK3" s="40">
+        <f t="shared" si="0"/>
+        <v>16490.90611481091</v>
+      </c>
+      <c r="AL3" s="40">
+        <f t="shared" si="0"/>
+        <v>16396.293444986528</v>
+      </c>
+      <c r="AM3" s="40">
+        <f t="shared" si="0"/>
+        <v>16304.725405006924</v>
+      </c>
+      <c r="AN3" s="40">
+        <f t="shared" si="0"/>
+        <v>16216.027675100382</v>
+      </c>
+      <c r="AO3" s="40">
+        <f t="shared" si="0"/>
+        <v>16130.040066782163</v>
+      </c>
+      <c r="AP3" s="40">
+        <f t="shared" si="0"/>
+        <v>16046.615057375167</v>
+      </c>
+      <c r="AQ3" s="40">
+        <f t="shared" si="0"/>
+        <v>15965.616508091967</v>
+      </c>
+      <c r="AR3" s="40">
+        <f t="shared" si="0"/>
+        <v>15886.918538915399</v>
+      </c>
+      <c r="AS3" s="40">
+        <f t="shared" si="0"/>
+        <v>15810.404537941047</v>
+      </c>
+      <c r="AT3" s="40">
+        <f t="shared" si="0"/>
+        <v>15735.966286456898</v>
+      </c>
+      <c r="AU3" s="40">
+        <f t="shared" si="0"/>
+        <v>15663.503183996372</v>
+      </c>
+      <c r="AV3" s="40">
+        <f t="shared" si="0"/>
+        <v>15592.92156004043</v>
+      </c>
+      <c r="AW3" s="40">
+        <f t="shared" si="0"/>
+        <v>15524.134061062965</v>
+      </c>
+      <c r="AX3" s="40">
+        <f t="shared" si="0"/>
+        <v>15457.05910329122</v>
+      </c>
+      <c r="AY3" s="40">
+        <f t="shared" si="0"/>
+        <v>15391.620382952713</v>
+      </c>
+      <c r="AZ3" s="40">
+        <f t="shared" si="0"/>
+        <v>15327.746436952839</v>
+      </c>
+      <c r="BA3" s="35">
+        <f t="shared" si="0"/>
+        <v>15265.37024791327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40">
+        <f>13000*7</f>
+        <v>91000</v>
+      </c>
+      <c r="C4" s="40">
+        <f t="shared" ref="C4:BA4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
+        <v>71397.152908604316</v>
+      </c>
+      <c r="D4" s="40">
+        <f t="shared" si="1"/>
+        <v>61951.090169008989</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" si="1"/>
+        <v>56017.07080719369</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="1"/>
+        <v>51808.604067688932</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" si="1"/>
+        <v>48605.840193972173</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>46052.910067251345</v>
+      </c>
+      <c r="I4" s="40">
+        <f t="shared" si="1"/>
+        <v>43950.102966080478</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="1"/>
+        <v>42175.138166249249</v>
+      </c>
+      <c r="K4" s="40">
+        <f t="shared" si="1"/>
+        <v>40648.206885737643</v>
+      </c>
+      <c r="L4" s="40">
+        <f t="shared" si="1"/>
+        <v>39314.608251327569</v>
+      </c>
+      <c r="M4" s="40">
+        <f t="shared" si="1"/>
+        <v>38135.369281101288</v>
+      </c>
+      <c r="N4" s="40">
+        <f t="shared" si="1"/>
+        <v>37081.835160851289</v>
+      </c>
+      <c r="O4" s="40">
+        <f t="shared" si="1"/>
+        <v>36132.380900634584</v>
+      </c>
+      <c r="P4" s="40">
+        <f t="shared" si="1"/>
+        <v>35270.324199207498</v>
+      </c>
+      <c r="Q4" s="40">
+        <f t="shared" si="1"/>
+        <v>34482.551888111557</v>
+      </c>
+      <c r="R4" s="40">
+        <f t="shared" si="1"/>
+        <v>33758.587726172031</v>
+      </c>
+      <c r="S4" s="40">
+        <f t="shared" si="1"/>
+        <v>33089.942731837495</v>
+      </c>
+      <c r="T4" s="40">
+        <f t="shared" si="1"/>
+        <v>32469.651848585527</v>
+      </c>
+      <c r="U4" s="40">
+        <f t="shared" si="1"/>
+        <v>31891.936730566969</v>
+      </c>
+      <c r="V4" s="40">
+        <f t="shared" si="1"/>
+        <v>31351.95586946758</v>
+      </c>
+      <c r="W4" s="40">
+        <f t="shared" si="1"/>
+        <v>30845.616449031993</v>
+      </c>
+      <c r="X4" s="40">
+        <f t="shared" si="1"/>
+        <v>30369.430625054156</v>
+      </c>
+      <c r="Y4" s="40">
+        <f t="shared" si="1"/>
+        <v>29920.404305372314</v>
+      </c>
+      <c r="Z4" s="40">
+        <f t="shared" si="1"/>
+        <v>29495.950059808281</v>
+      </c>
+      <c r="AA4" s="40">
+        <f t="shared" si="1"/>
+        <v>29093.818188032514</v>
+      </c>
+      <c r="AB4" s="40">
+        <f t="shared" si="1"/>
+        <v>28712.041620084834</v>
+      </c>
+      <c r="AC4" s="40">
+        <f t="shared" si="1"/>
+        <v>28348.891473786171</v>
+      </c>
+      <c r="AD4" s="40">
+        <f t="shared" si="1"/>
+        <v>28002.840907809561</v>
+      </c>
+      <c r="AE4" s="40">
+        <f t="shared" si="1"/>
+        <v>27672.535494361153</v>
+      </c>
+      <c r="AF4" s="40">
+        <f t="shared" si="1"/>
+        <v>27356.768761213276</v>
+      </c>
+      <c r="AG4" s="40">
+        <f t="shared" si="1"/>
+        <v>27054.461866311904</v>
+      </c>
+      <c r="AH4" s="40">
+        <f t="shared" si="1"/>
+        <v>26764.646601508339</v>
+      </c>
+      <c r="AI4" s="40">
+        <f t="shared" si="1"/>
+        <v>26486.451097407004</v>
+      </c>
+      <c r="AJ4" s="40">
+        <f t="shared" si="1"/>
+        <v>26219.087734495715</v>
+      </c>
+      <c r="AK4" s="40">
+        <f t="shared" si="1"/>
+        <v>25961.842867713865</v>
+      </c>
+      <c r="AL4" s="40">
+        <f t="shared" si="1"/>
+        <v>25714.068050373437</v>
+      </c>
+      <c r="AM4" s="40">
+        <f t="shared" si="1"/>
+        <v>25475.172504644041</v>
+      </c>
+      <c r="AN4" s="40">
+        <f t="shared" si="1"/>
+        <v>25244.616633870617</v>
+      </c>
+      <c r="AO4" s="40">
+        <f t="shared" si="1"/>
+        <v>25021.906409932133</v>
+      </c>
+      <c r="AP4" s="40">
+        <f t="shared" si="1"/>
+        <v>24806.588498998015</v>
+      </c>
+      <c r="AQ4" s="40">
+        <f t="shared" si="1"/>
+        <v>24598.246013144959</v>
+      </c>
+      <c r="AR4" s="40">
+        <f t="shared" si="1"/>
+        <v>24396.49479468463</v>
+      </c>
+      <c r="AS4" s="40">
+        <f t="shared" si="1"/>
+        <v>24200.980155732937</v>
+      </c>
+      <c r="AT4" s="40">
+        <f t="shared" si="1"/>
+        <v>24011.374008299819</v>
+      </c>
+      <c r="AU4" s="40">
+        <f t="shared" si="1"/>
+        <v>23827.37233059607</v>
+      </c>
+      <c r="AV4" s="40">
+        <f t="shared" si="1"/>
+        <v>23648.692923806913</v>
+      </c>
+      <c r="AW4" s="40">
+        <f t="shared" si="1"/>
+        <v>23475.073420636596</v>
+      </c>
+      <c r="AX4" s="40">
+        <f t="shared" si="1"/>
+        <v>23306.269512772971</v>
+      </c>
+      <c r="AY4" s="40">
+        <f t="shared" si="1"/>
+        <v>23142.05336928229</v>
+      </c>
+      <c r="AZ4" s="40">
+        <f t="shared" si="1"/>
+        <v>22982.212222005313</v>
+      </c>
+      <c r="BA4" s="35">
+        <f t="shared" si="1"/>
+        <v>22826.547097429568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <f>8000*7</f>
+        <v>56000</v>
+      </c>
+      <c r="C5" s="40">
+        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
+        <v>47090.199254208019</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" ref="D5:BA5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
+        <v>42550.798396489176</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="2"/>
+        <v>39597.979746446661</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="2"/>
+        <v>37449.457078679632</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" si="2"/>
+        <v>35780.813837791255</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="2"/>
+        <v>34428.136565270812</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" si="2"/>
+        <v>33297.799220076187</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="2"/>
+        <v>32331.61507461904</v>
+      </c>
+      <c r="K5" s="40">
+        <f t="shared" si="2"/>
+        <v>31491.114210659547</v>
+      </c>
+      <c r="L5" s="40">
+        <f t="shared" si="2"/>
+        <v>30749.627259462297</v>
+      </c>
+      <c r="M5" s="40">
+        <f t="shared" si="2"/>
+        <v>30087.958091059176</v>
+      </c>
+      <c r="N5" s="40">
+        <f t="shared" si="2"/>
+        <v>29491.861719483888</v>
+      </c>
+      <c r="O5" s="40">
+        <f t="shared" si="2"/>
+        <v>28950.496621601553</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" si="2"/>
+        <v>28455.433896658426</v>
+      </c>
+      <c r="Q5" s="40">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="R5" s="40">
+        <f t="shared" si="2"/>
+        <v>27578.827388305333</v>
+      </c>
+      <c r="S5" s="40">
+        <f t="shared" si="2"/>
+        <v>27187.539215610112</v>
+      </c>
+      <c r="T5" s="40">
+        <f t="shared" si="2"/>
+        <v>26822.523024840182</v>
+      </c>
+      <c r="U5" s="40">
+        <f t="shared" si="2"/>
+        <v>26480.765052088922</v>
+      </c>
+      <c r="V5" s="40">
+        <f t="shared" si="2"/>
+        <v>26159.726752779206</v>
+      </c>
+      <c r="W5" s="40">
+        <f t="shared" si="2"/>
+        <v>25857.251332869746</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" si="2"/>
+        <v>25571.491987816953</v>
+      </c>
+      <c r="Y5" s="40">
+        <f t="shared" si="2"/>
+        <v>25300.856101075653</v>
+      </c>
+      <c r="Z5" s="40">
+        <f t="shared" si="2"/>
+        <v>25043.961347997643</v>
+      </c>
+      <c r="AA5" s="40">
+        <f t="shared" si="2"/>
+        <v>24799.600799072254</v>
+      </c>
+      <c r="AB5" s="40">
+        <f t="shared" si="2"/>
+        <v>24566.714908446527</v>
+      </c>
+      <c r="AC5" s="40">
+        <f t="shared" si="2"/>
+        <v>24344.36882891952</v>
+      </c>
+      <c r="AD5" s="40">
+        <f t="shared" si="2"/>
+        <v>24131.733889698735</v>
+      </c>
+      <c r="AE5" s="40">
+        <f t="shared" si="2"/>
+        <v>23928.072358189107</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" si="2"/>
+        <v>23732.724815241214</v>
+      </c>
+      <c r="AG5" s="40">
+        <f t="shared" si="2"/>
+        <v>23545.099627104009</v>
+      </c>
+      <c r="AH5" s="40">
+        <f t="shared" si="2"/>
+        <v>23364.664112224433</v>
+      </c>
+      <c r="AI5" s="40">
+        <f t="shared" si="2"/>
+        <v>23190.937087726914</v>
+      </c>
+      <c r="AJ5" s="40">
+        <f t="shared" si="2"/>
+        <v>23023.482546429106</v>
+      </c>
+      <c r="AK5" s="40">
+        <f t="shared" si="2"/>
+        <v>22861.904265976333</v>
+      </c>
+      <c r="AL5" s="40">
+        <f t="shared" si="2"/>
+        <v>22705.841190971114</v>
+      </c>
+      <c r="AM5" s="40">
+        <f t="shared" si="2"/>
+        <v>22554.96345964833</v>
+      </c>
+      <c r="AN5" s="40">
+        <f t="shared" si="2"/>
+        <v>22408.968970765996</v>
+      </c>
+      <c r="AO5" s="40">
+        <f t="shared" si="2"/>
+        <v>22267.580405477416</v>
+      </c>
+      <c r="AP5" s="40">
+        <f t="shared" si="2"/>
+        <v>22130.542634166668</v>
+      </c>
+      <c r="AQ5" s="40">
+        <f t="shared" si="2"/>
+        <v>21997.620450428727</v>
+      </c>
+      <c r="AR5" s="40">
+        <f t="shared" si="2"/>
+        <v>21868.596584212904</v>
+      </c>
+      <c r="AS5" s="40">
+        <f t="shared" si="2"/>
+        <v>21743.269954124502</v>
+      </c>
+      <c r="AT5" s="40">
+        <f t="shared" si="2"/>
+        <v>21621.454125381024</v>
+      </c>
+      <c r="AU5" s="40">
+        <f t="shared" si="2"/>
+        <v>21502.975945244358</v>
+      </c>
+      <c r="AV5" s="40">
+        <f t="shared" si="2"/>
+        <v>21387.674332133389</v>
+      </c>
+      <c r="AW5" s="40">
+        <f t="shared" si="2"/>
+        <v>21275.399198244588</v>
+      </c>
+      <c r="AX5" s="40">
+        <f t="shared" si="2"/>
+        <v>21166.010488516727</v>
+      </c>
+      <c r="AY5" s="40">
+        <f t="shared" si="2"/>
+        <v>21059.377321283806</v>
+      </c>
+      <c r="AZ5" s="40">
+        <f t="shared" si="2"/>
+        <v>20955.377218059901</v>
+      </c>
+      <c r="BA5" s="35">
+        <f t="shared" si="2"/>
+        <v>20853.895411663008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="40">
+        <f>2000*7</f>
+        <v>14000</v>
+      </c>
+      <c r="C6" s="40">
+        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
+        <v>13807.257862907029</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" ref="D6:BA6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
+        <v>13695.743400208396</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="3"/>
+        <v>13617.169263771997</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="3"/>
+        <v>13556.533000158817</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="3"/>
+        <v>13507.1900536346</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="3"/>
+        <v>13465.611329867192</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="3"/>
+        <v>13429.6976705537</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="3"/>
+        <v>13398.099091739417</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" si="3"/>
+        <v>13369.896204300103</v>
+      </c>
+      <c r="L6" s="40">
+        <f t="shared" si="3"/>
+        <v>13344.434735157942</v>
+      </c>
+      <c r="M6" s="40">
+        <f t="shared" si="3"/>
+        <v>13321.232576701854</v>
+      </c>
+      <c r="N6" s="40">
+        <f t="shared" si="3"/>
+        <v>13299.924286485162</v>
+      </c>
+      <c r="O6" s="40">
+        <f t="shared" si="3"/>
+        <v>13280.22627951134</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" si="3"/>
+        <v>13261.914097616605</v>
+      </c>
+      <c r="Q6" s="40">
+        <f t="shared" si="3"/>
+        <v>13244.807054158344</v>
+      </c>
+      <c r="R6" s="40">
+        <f t="shared" si="3"/>
+        <v>13228.757557697323</v>
+      </c>
+      <c r="S6" s="40">
+        <f t="shared" si="3"/>
+        <v>13213.643502316185</v>
+      </c>
+      <c r="T6" s="40">
+        <f t="shared" si="3"/>
+        <v>13199.362725186578</v>
+      </c>
+      <c r="U6" s="40">
+        <f t="shared" si="3"/>
+        <v>13185.828892362388</v>
+      </c>
+      <c r="V6" s="40">
+        <f t="shared" si="3"/>
+        <v>13172.968392914285</v>
+      </c>
+      <c r="W6" s="40">
+        <f t="shared" si="3"/>
+        <v>13160.717958789941</v>
+      </c>
+      <c r="X6" s="40">
+        <f t="shared" si="3"/>
+        <v>13149.022816058006</v>
+      </c>
+      <c r="Y6" s="40">
+        <f t="shared" si="3"/>
+        <v>13137.835231305709</v>
+      </c>
+      <c r="Z6" s="40">
+        <f t="shared" si="3"/>
+        <v>13127.113356028216</v>
+      </c>
+      <c r="AA6" s="40">
+        <f t="shared" si="3"/>
+        <v>13116.820298617173</v>
+      </c>
+      <c r="AB6" s="40">
+        <f t="shared" si="3"/>
+        <v>13106.923372216301</v>
+      </c>
+      <c r="AC6" s="40">
+        <f t="shared" si="3"/>
+        <v>13097.39347992625</v>
+      </c>
+      <c r="AD6" s="40">
+        <f t="shared" si="3"/>
+        <v>13088.204608333777</v>
+      </c>
+      <c r="AE6" s="40">
+        <f t="shared" si="3"/>
+        <v>13079.333407251032</v>
+      </c>
+      <c r="AF6" s="40">
+        <f t="shared" si="3"/>
+        <v>13070.758838642858</v>
+      </c>
+      <c r="AG6" s="40">
+        <f t="shared" si="3"/>
+        <v>13062.461881515304</v>
+      </c>
+      <c r="AH6" s="40">
+        <f t="shared" si="3"/>
+        <v>13054.425282396505</v>
+      </c>
+      <c r="AI6" s="40">
+        <f t="shared" si="3"/>
+        <v>13046.633343214795</v>
+      </c>
+      <c r="AJ6" s="40">
+        <f t="shared" si="3"/>
+        <v>13039.071740046933</v>
+      </c>
+      <c r="AK6" s="40">
+        <f t="shared" si="3"/>
+        <v>13031.727367500394</v>
+      </c>
+      <c r="AL6" s="40">
+        <f t="shared" si="3"/>
+        <v>13024.588204501091</v>
+      </c>
+      <c r="AM6" s="40">
+        <f t="shared" si="3"/>
+        <v>13017.643198049596</v>
+      </c>
+      <c r="AN6" s="40">
+        <f t="shared" si="3"/>
+        <v>13010.882162135753</v>
+      </c>
+      <c r="AO6" s="40">
+        <f t="shared" si="3"/>
+        <v>13004.295689501234</v>
+      </c>
+      <c r="AP6" s="40">
+        <f t="shared" si="3"/>
+        <v>12997.875074339925</v>
+      </c>
+      <c r="AQ6" s="40">
+        <f t="shared" si="3"/>
+        <v>12991.612244349395</v>
+      </c>
+      <c r="AR6" s="40">
+        <f t="shared" si="3"/>
+        <v>12985.499700808712</v>
+      </c>
+      <c r="AS6" s="40">
+        <f t="shared" si="3"/>
+        <v>12979.530465571725</v>
+      </c>
+      <c r="AT6" s="40">
+        <f t="shared" si="3"/>
+        <v>12973.698034040235</v>
+      </c>
+      <c r="AU6" s="40">
+        <f t="shared" si="3"/>
+        <v>12967.996333325775</v>
+      </c>
+      <c r="AV6" s="40">
+        <f t="shared" si="3"/>
+        <v>12962.419684928214</v>
+      </c>
+      <c r="AW6" s="40">
+        <f t="shared" si="3"/>
+        <v>12956.962771358765</v>
+      </c>
+      <c r="AX6" s="40">
+        <f t="shared" si="3"/>
+        <v>12951.620606217693</v>
+      </c>
+      <c r="AY6" s="40">
+        <f t="shared" si="3"/>
+        <v>12946.388507306605</v>
+      </c>
+      <c r="AZ6" s="40">
+        <f t="shared" si="3"/>
+        <v>12941.262072413576</v>
+      </c>
+      <c r="BA6" s="35">
+        <f t="shared" si="3"/>
+        <v>12936.237157458605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E83FA-0F3B-443C-8B3E-ADC37406AEAD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -7208,19 +7305,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>205</v>
       </c>
@@ -7228,67 +7325,67 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="35"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="35"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
@@ -7300,7 +7397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
@@ -7308,21 +7405,21 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -7483,7 +7580,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7660,7 +7757,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -7765,310 +7862,48 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
-        <v>300000</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="34">
-        <v>300000</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J6" s="34">
-        <v>300000</v>
-      </c>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
-        <v>300000</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34">
-        <v>300000</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
-        <v>300000</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34">
-        <v>300000</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
-        <v>300000</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
-        <v>300000</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34">
-        <v>300000</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34">
-        <v>75000</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8082,24 +7917,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
@@ -8120,7 +7955,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8141,12 +7976,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -8159,24 +7994,291 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="40">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="40">
+        <v>300000</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="40">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="40">
+        <v>300000</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40">
+        <v>300000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>300000</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40">
+        <v>300000</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40">
+        <v>300000</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
+        <v>300000</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
+        <v>300000</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40">
+        <v>300000</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40">
+        <v>500000</v>
+      </c>
+      <c r="L10" s="40">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40">
+        <v>75000</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>209</v>
       </c>
@@ -8184,7 +8286,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -8192,12 +8294,20 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="35">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="35">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -8206,7 +8316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8214,21 +8324,21 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="36"/>
     </row>
@@ -8238,7 +8348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8246,17 +8356,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -8264,7 +8374,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -8278,25 +8388,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>210</v>
       </c>
@@ -8457,7 +8567,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -8618,7 +8728,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -8779,7 +8889,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>126</v>
       </c>
@@ -8940,7 +9050,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>127</v>
       </c>
@@ -9101,47 +9211,208 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="D7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="G7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="J7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="L7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="M7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="N7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="O7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="P7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="R7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="S7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="T7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="U7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="V7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="W7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="X7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AA7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AB7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AD7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AE7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AF7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AG7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AH7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AI7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AJ7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AK7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AL7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AM7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AN7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AO7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AP7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AQ7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AR7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AS7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AT7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AU7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AV7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AW7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AX7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AY7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="AZ7" s="40">
+        <v>200000</v>
+      </c>
+      <c r="BA7" s="40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9153,7 +9424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9161,19 +9432,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -9181,7 +9452,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -9189,7 +9460,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
@@ -9203,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -9211,17 +9482,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -9229,7 +9500,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -9243,7 +9514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -9251,17 +9522,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>205</v>
       </c>
@@ -9272,7 +9543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>121</v>
       </c>
@@ -9283,7 +9554,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9294,7 +9565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -9305,7 +9576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9316,7 +9587,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
@@ -9327,34 +9598,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -9363,25 +9634,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>209</v>
       </c>
@@ -9389,7 +9660,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -9397,12 +9668,20 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="32">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -9412,7 +9691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -9420,17 +9699,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -9438,60 +9717,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="32">
         <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9508,24 +9739,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -9546,7 +9777,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -9567,7 +9798,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -9588,7 +9819,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -9609,7 +9840,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -9630,47 +9861,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -9683,6 +9914,54 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -9690,19 +9969,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>205</v>
       </c>
@@ -9719,7 +9998,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -9730,7 +10009,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>122</v>
       </c>
@@ -9741,7 +10020,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9750,7 +10029,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -9759,7 +10038,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -9768,7 +10047,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -9784,25 +10063,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>210</v>
       </c>
@@ -9810,7 +10089,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -9818,7 +10097,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -9826,7 +10105,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>126</v>
       </c>
@@ -9834,12 +10113,20 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="32">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="32">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -9848,7 +10135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9856,17 +10143,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>205</v>
       </c>
@@ -9874,7 +10161,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>121</v>
       </c>
@@ -9882,7 +10169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9890,7 +10177,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9898,7 +10185,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
@@ -9906,7 +10193,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -9914,7 +10201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>122</v>
       </c>
@@ -9922,7 +10209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -9930,7 +10217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>68</v>
       </c>
@@ -9945,7 +10232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -9953,17 +10240,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -9971,7 +10258,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -9979,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -9987,7 +10274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -9995,7 +10282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -10003,7 +10290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -10011,7 +10298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>94</v>
       </c>
@@ -10025,7 +10312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10033,17 +10320,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>214</v>
       </c>
@@ -10051,7 +10338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>98</v>
       </c>
@@ -10059,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>158</v>
       </c>
@@ -10067,7 +10354,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>159</v>
       </c>
@@ -10075,7 +10362,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>160</v>
       </c>
@@ -10089,7 +10376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10097,33 +10384,33 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="36"/>
     </row>
@@ -10133,7 +10420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10141,17 +10428,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -10159,7 +10446,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>197</v>
       </c>
@@ -10167,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>198</v>
       </c>
@@ -10175,7 +10462,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>199</v>
       </c>
@@ -10183,7 +10470,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>200</v>
       </c>
@@ -10197,7 +10484,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A36354-D360-42CB-B8C1-0F4841C76027}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="44">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10205,17 +10534,17 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -10223,199 +10552,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="32">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="34">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34">
-        <v>20</v>
-      </c>
-      <c r="E3" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="34">
-        <v>20</v>
-      </c>
-      <c r="C4" s="34">
-        <v>20</v>
-      </c>
-      <c r="D4" s="34">
-        <v>20</v>
-      </c>
-      <c r="E4" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10431,30 +10574,30 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
@@ -10477,7 +10620,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10497,7 +10640,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10517,7 +10660,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10537,7 +10680,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -10565,6 +10708,192 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34">
+        <v>20</v>
+      </c>
+      <c r="C3" s="34">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>20</v>
+      </c>
+      <c r="E3" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="34">
+        <v>20</v>
+      </c>
+      <c r="C4" s="34">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -10572,17 +10901,17 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -10599,7 +10928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
@@ -10616,39 +10945,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -10658,7 +10987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10666,19 +10995,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -10686,7 +11015,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>223</v>
       </c>
@@ -10699,7 +11028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -10707,16 +11036,16 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>205</v>
       </c>
@@ -10769,7 +11098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>121</v>
       </c>
@@ -10822,7 +11151,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10875,7 +11204,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10928,7 +11257,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
@@ -10981,7 +11310,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -11034,7 +11363,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>122</v>
       </c>
@@ -11087,7 +11416,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -11140,7 +11469,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
@@ -11193,7 +11522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>83</v>
       </c>
@@ -11246,7 +11575,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>84</v>
       </c>
@@ -11299,7 +11628,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>85</v>
       </c>
@@ -11352,7 +11681,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>86</v>
       </c>
@@ -11405,7 +11734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>87</v>
       </c>
@@ -11458,7 +11787,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>88</v>
       </c>
@@ -11511,7 +11840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>129</v>
       </c>
@@ -11564,7 +11893,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>130</v>
       </c>
@@ -11617,7 +11946,7 @@
         <v>21.292999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>131</v>
       </c>
@@ -11670,7 +11999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>67</v>
       </c>
@@ -11723,7 +12052,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>68</v>
       </c>
@@ -11776,7 +12105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>126</v>
       </c>
@@ -11829,7 +12158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>127</v>
       </c>
@@ -11882,7 +12211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -11941,7 +12270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -11949,17 +12278,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -11967,7 +12296,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -11975,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -11983,7 +12312,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -11991,7 +12320,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -11999,7 +12328,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -12007,7 +12336,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>94</v>
       </c>
@@ -12021,7 +12350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -12029,9 +12358,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -12039,7 +12368,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>205</v>
       </c>
@@ -12065,7 +12394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>129</v>
       </c>
@@ -12091,7 +12420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>131</v>
       </c>
@@ -12122,7 +12451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -12130,17 +12459,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -12148,7 +12477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -12156,7 +12485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>217</v>
       </c>
@@ -12169,7 +12498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -12177,17 +12506,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -12195,7 +12524,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>226</v>
       </c>
@@ -12203,7 +12532,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>227</v>
       </c>
@@ -12216,7 +12545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116C540-9873-4846-A6A7-C29068296EE0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -12224,23 +12553,23 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>232</v>
       </c>
@@ -12248,7 +12577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>121</v>
       </c>
@@ -12256,7 +12585,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -12264,7 +12593,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -12272,7 +12601,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
@@ -12280,7 +12609,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -12288,7 +12617,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>122</v>
       </c>
@@ -12302,110 +12631,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="64">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
@@ -12426,7 +12676,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -12447,6 +12697,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12454,38 +12709,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4431891-48E2-445E-BEF5-EFA8A88952D4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BFA9F4-87E5-4A8C-BA81-50B58EA7DF44}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="64">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -12508,7 +12842,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>126</v>
       </c>
@@ -12531,7 +12865,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>127</v>
       </c>
@@ -12554,6 +12888,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12569,28 +12908,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -12611,7 +12950,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12631,7 +12970,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12651,7 +12990,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -12671,7 +13010,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -12691,7 +13030,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -12711,7 +13050,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
